--- a/Code/Results/Cases/Case_7_42/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_7_42/res_line/pl_mw.xlsx
@@ -421,22 +421,22 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>2.470116417991164</v>
+        <v>1.011278393842815</v>
       </c>
       <c r="C2">
-        <v>0.2926018718019918</v>
+        <v>0.09812120689731074</v>
       </c>
       <c r="D2">
-        <v>0.003370347858226097</v>
+        <v>0.06807035254751526</v>
       </c>
       <c r="E2">
-        <v>0.02515929188555655</v>
+        <v>0.05161593203854942</v>
       </c>
       <c r="F2">
-        <v>1.947571036426353</v>
+        <v>0.953556803130688</v>
       </c>
       <c r="G2">
-        <v>0.000841540602781446</v>
+        <v>0.000834355287350208</v>
       </c>
       <c r="H2">
         <v>0</v>
@@ -445,22 +445,22 @@
         <v>0</v>
       </c>
       <c r="J2">
-        <v>0.06082833341758009</v>
+        <v>0.07211239382576373</v>
       </c>
       <c r="K2">
-        <v>0.567105479567509</v>
+        <v>0.8127546036859314</v>
       </c>
       <c r="L2">
-        <v>0.157875789687786</v>
+        <v>0.1362814605940628</v>
       </c>
       <c r="M2">
-        <v>0.4243589157256125</v>
+        <v>0.2085858726958953</v>
       </c>
       <c r="N2">
-        <v>1.464435988374383</v>
+        <v>1.234139288567038</v>
       </c>
       <c r="O2">
-        <v>1.410973830773855</v>
+        <v>2.528496366240262</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,22 +468,22 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>2.182146510825532</v>
+        <v>0.8878224832278647</v>
       </c>
       <c r="C3">
-        <v>0.2533510384093631</v>
+        <v>0.09513677037087831</v>
       </c>
       <c r="D3">
-        <v>0.003052621500317265</v>
+        <v>0.06189504609213259</v>
       </c>
       <c r="E3">
-        <v>0.02529302877575712</v>
+        <v>0.05101947828209674</v>
       </c>
       <c r="F3">
-        <v>1.866153100380473</v>
+        <v>0.9404449909207884</v>
       </c>
       <c r="G3">
-        <v>0.0008483731468308888</v>
+        <v>0.0008379454285728028</v>
       </c>
       <c r="H3">
         <v>0</v>
@@ -492,22 +492,22 @@
         <v>0</v>
       </c>
       <c r="J3">
-        <v>0.06211491186267759</v>
+        <v>0.07368525895098976</v>
       </c>
       <c r="K3">
-        <v>0.4963245612742924</v>
+        <v>0.7066378421137358</v>
       </c>
       <c r="L3">
-        <v>0.1457385050672073</v>
+        <v>0.1258344466065751</v>
       </c>
       <c r="M3">
-        <v>0.3781855900597577</v>
+        <v>0.1852954345194249</v>
       </c>
       <c r="N3">
-        <v>1.52215840653853</v>
+        <v>1.283507084630505</v>
       </c>
       <c r="O3">
-        <v>1.352119294001511</v>
+        <v>2.515680596139873</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,22 +515,22 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>2.008060670092931</v>
+        <v>0.8124562435345979</v>
       </c>
       <c r="C4">
-        <v>0.2294521051501448</v>
+        <v>0.09330464158755092</v>
       </c>
       <c r="D4">
-        <v>0.002864557839226123</v>
+        <v>0.05814463020397653</v>
       </c>
       <c r="E4">
-        <v>0.02538484301930999</v>
+        <v>0.05069852714049716</v>
       </c>
       <c r="F4">
-        <v>1.819409275843853</v>
+        <v>0.933694095743725</v>
       </c>
       <c r="G4">
-        <v>0.0008526982800719584</v>
+        <v>0.000840228016487098</v>
       </c>
       <c r="H4">
         <v>0</v>
@@ -539,22 +539,22 @@
         <v>0</v>
       </c>
       <c r="J4">
-        <v>0.06293303892575897</v>
+        <v>0.07470557820728807</v>
       </c>
       <c r="K4">
-        <v>0.4534591388585909</v>
+        <v>0.6416641559382867</v>
       </c>
       <c r="L4">
-        <v>0.138463008386644</v>
+        <v>0.1195240810492066</v>
       </c>
       <c r="M4">
-        <v>0.3503137286978344</v>
+        <v>0.1711099490714787</v>
       </c>
       <c r="N4">
-        <v>1.559333430458175</v>
+        <v>1.315051300209014</v>
       </c>
       <c r="O4">
-        <v>1.318436412835126</v>
+        <v>2.51144418821896</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,22 +562,22 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.937737442621085</v>
+        <v>0.7818422998533094</v>
       </c>
       <c r="C5">
-        <v>0.2197546079812156</v>
+        <v>0.09255791552963899</v>
       </c>
       <c r="D5">
-        <v>0.002789382540440144</v>
+        <v>0.0566261732088762</v>
       </c>
       <c r="E5">
-        <v>0.02542464582141957</v>
+        <v>0.05057889227190238</v>
       </c>
       <c r="F5">
-        <v>1.801128008583746</v>
+        <v>0.9312591970023334</v>
       </c>
       <c r="G5">
-        <v>0.0008544943985575168</v>
+        <v>0.0008411781350834013</v>
       </c>
       <c r="H5">
         <v>0</v>
@@ -586,22 +586,22 @@
         <v>0</v>
       </c>
       <c r="J5">
-        <v>0.06327352156223487</v>
+        <v>0.0751349488248545</v>
       </c>
       <c r="K5">
-        <v>0.4361240228474443</v>
+        <v>0.6152238845301383</v>
       </c>
       <c r="L5">
-        <v>0.1355396968189737</v>
+        <v>0.1169775255412659</v>
       </c>
       <c r="M5">
-        <v>0.3390651562900757</v>
+        <v>0.1653558950006158</v>
       </c>
       <c r="N5">
-        <v>1.574905612753128</v>
+        <v>1.32821038063093</v>
       </c>
       <c r="O5">
-        <v>1.305289300491609</v>
+        <v>2.510601605676456</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,22 +609,22 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.926095758278677</v>
+        <v>0.776764502884447</v>
       </c>
       <c r="C6">
-        <v>0.2181465995501668</v>
+        <v>0.09243390945003682</v>
       </c>
       <c r="D6">
-        <v>0.002776979743517316</v>
+        <v>0.05637461630682594</v>
       </c>
       <c r="E6">
-        <v>0.02543139785885162</v>
+        <v>0.05055969423497153</v>
       </c>
       <c r="F6">
-        <v>1.798137377125997</v>
+        <v>0.9308736744133839</v>
       </c>
       <c r="G6">
-        <v>0.0008547946974841967</v>
+        <v>0.0008413371139739107</v>
       </c>
       <c r="H6">
         <v>0</v>
@@ -633,22 +633,22 @@
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0.06333048682996378</v>
+        <v>0.07520706181822234</v>
       </c>
       <c r="K6">
-        <v>0.4332531035232066</v>
+        <v>0.6108354846031858</v>
       </c>
       <c r="L6">
-        <v>0.1350567077235567</v>
+        <v>0.1165561455520816</v>
       </c>
       <c r="M6">
-        <v>0.3372036430816294</v>
+        <v>0.1644019842754929</v>
       </c>
       <c r="N6">
-        <v>1.577516556613766</v>
+        <v>1.330413680264728</v>
       </c>
       <c r="O6">
-        <v>1.30314013157345</v>
+        <v>2.510514232606667</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,22 +656,22 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>2.007109850096128</v>
+        <v>0.8120429892116476</v>
       </c>
       <c r="C7">
-        <v>0.2293211647823483</v>
+        <v>0.09329457171515543</v>
       </c>
       <c r="D7">
-        <v>0.002863538458127479</v>
+        <v>0.05812411245570104</v>
       </c>
       <c r="E7">
-        <v>0.02538537020984144</v>
+        <v>0.05069686883075342</v>
       </c>
       <c r="F7">
-        <v>1.819159684591966</v>
+        <v>0.9336599915792902</v>
       </c>
       <c r="G7">
-        <v>0.0008527223659474101</v>
+        <v>0.0008402407489573221</v>
       </c>
       <c r="H7">
         <v>0</v>
@@ -680,22 +680,22 @@
         <v>0</v>
       </c>
       <c r="J7">
-        <v>0.06293760207961663</v>
+        <v>0.07471131403682563</v>
       </c>
       <c r="K7">
-        <v>0.4532248344206238</v>
+        <v>0.6413074346019698</v>
       </c>
       <c r="L7">
-        <v>0.1384234192657985</v>
+        <v>0.1194896377768941</v>
       </c>
       <c r="M7">
-        <v>0.3501615973420726</v>
+        <v>0.1710322428960147</v>
       </c>
       <c r="N7">
-        <v>1.559541745637155</v>
+        <v>1.315227541836757</v>
       </c>
       <c r="O7">
-        <v>1.318256810757667</v>
+        <v>2.511429284623134</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,22 +703,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>2.370215537032607</v>
+        <v>0.9686132691978742</v>
       </c>
       <c r="C8">
-        <v>0.2790207318163027</v>
+        <v>0.09709197918380141</v>
       </c>
       <c r="D8">
-        <v>0.003259146118317346</v>
+        <v>0.06593223333540976</v>
       </c>
       <c r="E8">
-        <v>0.02520335884244829</v>
+        <v>0.05140073689349656</v>
       </c>
       <c r="F8">
-        <v>1.918793453902992</v>
+        <v>0.948759479383213</v>
       </c>
       <c r="G8">
-        <v>0.0008438700708893101</v>
+        <v>0.0008355771008845447</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -727,22 +727,22 @@
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0.06126610529224674</v>
+        <v>0.07264330461950763</v>
       </c>
       <c r="K8">
-        <v>0.542566515570698</v>
+        <v>0.7761221865305572</v>
       </c>
       <c r="L8">
-        <v>0.1536523034348249</v>
+        <v>0.1326569608361723</v>
       </c>
       <c r="M8">
-        <v>0.4083321521907379</v>
+        <v>0.2005300752185342</v>
       </c>
       <c r="N8">
-        <v>1.483970987028734</v>
+        <v>1.250902317121875</v>
       </c>
       <c r="O8">
-        <v>1.39014765306969</v>
+        <v>2.523305293059707</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,22 +750,22 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>3.107268518344824</v>
+        <v>1.279659370893171</v>
       </c>
       <c r="C9">
-        <v>0.3785275684995213</v>
+        <v>0.1045514002798313</v>
       </c>
       <c r="D9">
-        <v>0.004106076473139986</v>
+        <v>0.08159591280334411</v>
       </c>
       <c r="E9">
-        <v>0.02492599679921237</v>
+        <v>0.05315120827902398</v>
       </c>
       <c r="F9">
-        <v>2.142352899767417</v>
+        <v>0.9891920314976232</v>
       </c>
       <c r="G9">
-        <v>0.0008274968059275413</v>
+        <v>0.0008270393606537681</v>
       </c>
       <c r="H9">
         <v>0</v>
@@ -774,22 +774,22 @@
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0.05821132912311366</v>
+        <v>0.06902751616388869</v>
       </c>
       <c r="K9">
-        <v>0.7232976953125529</v>
+        <v>1.042375036944776</v>
       </c>
       <c r="L9">
-        <v>0.1850649453531616</v>
+        <v>0.1593635509086369</v>
       </c>
       <c r="M9">
-        <v>0.5267424252205188</v>
+        <v>0.2593973271949324</v>
       </c>
       <c r="N9">
-        <v>1.350149596120779</v>
+        <v>1.134783930980539</v>
       </c>
       <c r="O9">
-        <v>1.552465750248857</v>
+        <v>2.576824778993199</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,22 +797,22 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>3.669153295942806</v>
+        <v>1.511461765830433</v>
       </c>
       <c r="C10">
-        <v>0.4535733349040925</v>
+        <v>0.1100552754240738</v>
       </c>
       <c r="D10">
-        <v>0.004796191529806038</v>
+        <v>0.09335584112009343</v>
       </c>
       <c r="E10">
-        <v>0.02477485781655053</v>
+        <v>0.05467913004970981</v>
       </c>
       <c r="F10">
-        <v>2.327454610636792</v>
+        <v>1.02624376090624</v>
       </c>
       <c r="G10">
-        <v>0.0008160007427567421</v>
+        <v>0.0008211180463847835</v>
       </c>
       <c r="H10">
         <v>0</v>
@@ -821,22 +821,22 @@
         <v>0</v>
       </c>
       <c r="J10">
-        <v>0.05610220456934734</v>
+        <v>0.06664840626799773</v>
       </c>
       <c r="K10">
-        <v>0.86070412453914</v>
+        <v>1.239794374957768</v>
       </c>
       <c r="L10">
-        <v>0.2093107804899574</v>
+        <v>0.1796133586672255</v>
       </c>
       <c r="M10">
-        <v>0.6172081852082485</v>
+        <v>0.3034358549703313</v>
       </c>
       <c r="N10">
-        <v>1.261531377363326</v>
+        <v>1.055937040698169</v>
       </c>
       <c r="O10">
-        <v>1.687576937553516</v>
+        <v>2.636642759677727</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,22 +844,22 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>3.930465365623661</v>
+        <v>1.617823513025769</v>
       </c>
       <c r="C11">
-        <v>0.4883070117058423</v>
+        <v>0.1125680514622545</v>
       </c>
       <c r="D11">
-        <v>0.00513131756777252</v>
+        <v>0.09876921256812921</v>
       </c>
       <c r="E11">
-        <v>0.02471862088619337</v>
+        <v>0.05543053082540617</v>
       </c>
       <c r="F11">
-        <v>2.417101780635917</v>
+        <v>1.04487087337165</v>
       </c>
       <c r="G11">
-        <v>0.0008108701258700141</v>
+        <v>0.0008184961638984733</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -868,22 +868,22 @@
         <v>0</v>
       </c>
       <c r="J11">
-        <v>0.05517189973525971</v>
+        <v>0.06562853586627426</v>
       </c>
       <c r="K11">
-        <v>0.9245284276034766</v>
+        <v>1.330153395255564</v>
       </c>
       <c r="L11">
-        <v>0.2206493916658729</v>
+        <v>0.1889829607665021</v>
       </c>
       <c r="M11">
-        <v>0.6593214550482642</v>
+        <v>0.3236806892059079</v>
       </c>
       <c r="N11">
-        <v>1.223557209511995</v>
+        <v>1.021554949449367</v>
       </c>
       <c r="O11">
-        <v>1.753192510427112</v>
+        <v>2.668793850910788</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,22 +891,22 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>4.030355670645633</v>
+        <v>1.658248409125605</v>
       </c>
       <c r="C12">
-        <v>0.5015613481629373</v>
+        <v>0.113521210817531</v>
       </c>
       <c r="D12">
-        <v>0.005261896338578431</v>
+        <v>0.1008290305948947</v>
       </c>
       <c r="E12">
-        <v>0.02469923233944593</v>
+        <v>0.05572349979405189</v>
       </c>
       <c r="F12">
-        <v>2.451916300114348</v>
+        <v>1.052194891463273</v>
       </c>
       <c r="G12">
-        <v>0.0008089400175310394</v>
+        <v>0.0008175132645595881</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -915,22 +915,22 @@
         <v>0</v>
       </c>
       <c r="J12">
-        <v>0.05482379782792535</v>
+        <v>0.0652515107558802</v>
       </c>
       <c r="K12">
-        <v>0.948915182483006</v>
+        <v>1.364462909320878</v>
       </c>
       <c r="L12">
-        <v>0.2249925477138532</v>
+        <v>0.1925555051279986</v>
       </c>
       <c r="M12">
-        <v>0.6754255657832218</v>
+        <v>0.3313806965920776</v>
       </c>
       <c r="N12">
-        <v>1.209535874599908</v>
+        <v>1.008756609751599</v>
       </c>
       <c r="O12">
-        <v>1.778702370848706</v>
+        <v>2.681722237428545</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,22 +938,22 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>4.008798848335232</v>
+        <v>1.649535324953348</v>
       </c>
       <c r="C13">
-        <v>0.4987020063221621</v>
+        <v>0.1133158531014402</v>
       </c>
       <c r="D13">
-        <v>0.00523359955105196</v>
+        <v>0.1003849599019446</v>
       </c>
       <c r="E13">
-        <v>0.0247033213180412</v>
+        <v>0.05566002333728015</v>
       </c>
       <c r="F13">
-        <v>2.444378370921925</v>
+        <v>1.050605252416744</v>
       </c>
       <c r="G13">
-        <v>0.0008093551593634845</v>
+        <v>0.000817724513039804</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -962,22 +962,22 @@
         <v>0</v>
       </c>
       <c r="J13">
-        <v>0.05489858181585117</v>
+        <v>0.06533229828745846</v>
       </c>
       <c r="K13">
-        <v>0.9436528839854645</v>
+        <v>1.35706940805963</v>
       </c>
       <c r="L13">
-        <v>0.2240548856593279</v>
+        <v>0.1917849754934693</v>
       </c>
       <c r="M13">
-        <v>0.6719499686792929</v>
+        <v>0.3297208070007898</v>
       </c>
       <c r="N13">
-        <v>1.212539287160268</v>
+        <v>1.011502985028082</v>
       </c>
       <c r="O13">
-        <v>1.773177777756658</v>
+        <v>2.678903650513377</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,22 +985,22 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>3.938663911576782</v>
+        <v>1.621146227997713</v>
       </c>
       <c r="C14">
-        <v>0.4893953236649509</v>
+        <v>0.1126464339078908</v>
       </c>
       <c r="D14">
-        <v>0.005141982831930569</v>
+        <v>0.09893847245616882</v>
       </c>
       <c r="E14">
-        <v>0.02471698688820601</v>
+        <v>0.05545446266535059</v>
       </c>
       <c r="F14">
-        <v>2.419948100603165</v>
+        <v>1.045467914494665</v>
       </c>
       <c r="G14">
-        <v>0.0008107110882169399</v>
+        <v>0.0008184151029382693</v>
       </c>
       <c r="H14">
         <v>0</v>
@@ -1009,22 +1009,22 @@
         <v>0</v>
       </c>
       <c r="J14">
-        <v>0.05514317736205321</v>
+        <v>0.06559733263243572</v>
       </c>
       <c r="K14">
-        <v>0.9265302006764102</v>
+        <v>1.332974127012648</v>
       </c>
       <c r="L14">
-        <v>0.2210056836706968</v>
+        <v>0.1892763749385722</v>
       </c>
       <c r="M14">
-        <v>0.6606430949722011</v>
+        <v>0.3243134777073706</v>
       </c>
       <c r="N14">
-        <v>1.222396341325094</v>
+        <v>1.020497538716366</v>
       </c>
       <c r="O14">
-        <v>1.755277541778028</v>
+        <v>2.669842119370003</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,22 +1032,22 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>3.895829930041998</v>
+        <v>1.603776874176674</v>
       </c>
       <c r="C15">
-        <v>0.4837084239336775</v>
+        <v>0.1122366171834628</v>
       </c>
       <c r="D15">
-        <v>0.005086363469161803</v>
+        <v>0.09805376772401075</v>
       </c>
       <c r="E15">
-        <v>0.02472560925274925</v>
+        <v>0.05532965869106121</v>
       </c>
       <c r="F15">
-        <v>2.405099424156475</v>
+        <v>1.04235682930414</v>
       </c>
       <c r="G15">
-        <v>0.000811543247118629</v>
+        <v>0.0008188393938642524</v>
       </c>
       <c r="H15">
         <v>0</v>
@@ -1056,22 +1056,22 @@
         <v>0</v>
       </c>
       <c r="J15">
-        <v>0.05529354391118435</v>
+        <v>0.06576087531324681</v>
       </c>
       <c r="K15">
-        <v>0.9160713305901425</v>
+        <v>1.318227525107545</v>
       </c>
       <c r="L15">
-        <v>0.2191445596951809</v>
+        <v>0.1877430273569445</v>
       </c>
       <c r="M15">
-        <v>0.6537383063251596</v>
+        <v>0.3210058269411675</v>
       </c>
       <c r="N15">
-        <v>1.228481483178101</v>
+        <v>1.026036035623212</v>
       </c>
       <c r="O15">
-        <v>1.744401488538259</v>
+        <v>2.664391121581843</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,22 +1079,22 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>3.652200471389676</v>
+        <v>1.504530557120233</v>
       </c>
       <c r="C16">
-        <v>0.4513167000668261</v>
+        <v>0.109891268684791</v>
       </c>
       <c r="D16">
-        <v>0.004774768286027964</v>
+        <v>0.09300340807308061</v>
       </c>
       <c r="E16">
-        <v>0.0247787937364965</v>
+        <v>0.05463118557653601</v>
       </c>
       <c r="F16">
-        <v>2.321712508414009</v>
+        <v>1.025063398148617</v>
       </c>
       <c r="G16">
-        <v>0.0008163379085201994</v>
+        <v>0.0008212908054427535</v>
       </c>
       <c r="H16">
         <v>0</v>
@@ -1103,22 +1103,22 @@
         <v>0</v>
       </c>
       <c r="J16">
-        <v>0.05616358809950039</v>
+        <v>0.06671633005265321</v>
       </c>
       <c r="K16">
-        <v>0.8565619311192307</v>
+        <v>1.233901410608098</v>
       </c>
       <c r="L16">
-        <v>0.2085764131544465</v>
+        <v>0.1790043592221409</v>
       </c>
       <c r="M16">
-        <v>0.6144768557078351</v>
+        <v>0.302117341657528</v>
       </c>
       <c r="N16">
-        <v>1.264061997662452</v>
+        <v>1.058214541029574</v>
       </c>
       <c r="O16">
-        <v>1.683377818526552</v>
+        <v>2.634644634536642</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,22 +1126,22 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>3.504282739606992</v>
+        <v>1.443891655267237</v>
       </c>
       <c r="C17">
-        <v>0.4316086000800397</v>
+        <v>0.1084550111444642</v>
       </c>
       <c r="D17">
-        <v>0.004589461465728917</v>
+        <v>0.08992200102278503</v>
       </c>
       <c r="E17">
-        <v>0.02481469831648786</v>
+        <v>0.05421735271660033</v>
       </c>
       <c r="F17">
-        <v>2.272008897314905</v>
+        <v>1.014919046943461</v>
       </c>
       <c r="G17">
-        <v>0.0008193036168217862</v>
+        <v>0.0008228127896295476</v>
       </c>
       <c r="H17">
         <v>0</v>
@@ -1150,22 +1150,22 @@
         <v>0</v>
       </c>
       <c r="J17">
-        <v>0.05670479235455783</v>
+        <v>0.06731859434722409</v>
       </c>
       <c r="K17">
-        <v>0.8204116013988028</v>
+        <v>1.182320515252798</v>
       </c>
       <c r="L17">
-        <v>0.2021757782990932</v>
+        <v>0.1736851320664314</v>
       </c>
       <c r="M17">
-        <v>0.5906498098383466</v>
+        <v>0.2905863264211135</v>
       </c>
       <c r="N17">
-        <v>1.286503677399729</v>
+        <v>1.0783409222422</v>
       </c>
       <c r="O17">
-        <v>1.647049947738751</v>
+        <v>2.617691129435997</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,22 +1173,22 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>3.41973400015047</v>
+        <v>1.409098702842385</v>
       </c>
       <c r="C18">
-        <v>0.4203279788144698</v>
+        <v>0.1076297431387871</v>
       </c>
       <c r="D18">
-        <v>0.004484830036363796</v>
+        <v>0.08815560868220729</v>
       </c>
       <c r="E18">
-        <v>0.02483652059358699</v>
+        <v>0.0539846093841394</v>
       </c>
       <c r="F18">
-        <v>2.24392753325769</v>
+        <v>1.00925009784256</v>
       </c>
       <c r="G18">
-        <v>0.0008210188295090874</v>
+        <v>0.0008236949715308869</v>
       </c>
       <c r="H18">
         <v>0</v>
@@ -1197,22 +1197,22 @@
         <v>0</v>
       </c>
       <c r="J18">
-        <v>0.0570188225678594</v>
+        <v>0.06767086113512555</v>
       </c>
       <c r="K18">
-        <v>0.7997410254887427</v>
+        <v>1.152703664219558</v>
       </c>
       <c r="L18">
-        <v>0.1985230634563564</v>
+        <v>0.1706403990103453</v>
       </c>
       <c r="M18">
-        <v>0.5770342528265999</v>
+        <v>0.2839736864280553</v>
       </c>
       <c r="N18">
-        <v>1.299630199131364</v>
+        <v>1.090056438151025</v>
       </c>
       <c r="O18">
-        <v>1.626541703822284</v>
+        <v>2.608402117536741</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,22 +1220,22 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>3.391194858159679</v>
+        <v>1.397332506782902</v>
       </c>
       <c r="C19">
-        <v>0.4165175360356557</v>
+        <v>0.1073504545168689</v>
       </c>
       <c r="D19">
-        <v>0.004449721185154409</v>
+        <v>0.08755853928124679</v>
       </c>
       <c r="E19">
-        <v>0.02484410731675646</v>
+        <v>0.05390670406224274</v>
       </c>
       <c r="F19">
-        <v>2.234504283621632</v>
+        <v>1.007358710801768</v>
       </c>
       <c r="G19">
-        <v>0.0008216012312851789</v>
+        <v>0.0008239948378913808</v>
       </c>
       <c r="H19">
         <v>0</v>
@@ -1244,22 +1244,22 @@
         <v>0</v>
       </c>
       <c r="J19">
-        <v>0.05712561926344772</v>
+        <v>0.06779113308172313</v>
       </c>
       <c r="K19">
-        <v>0.7927624810854326</v>
+        <v>1.142684300576775</v>
       </c>
       <c r="L19">
-        <v>0.1972911115087399</v>
+        <v>0.1696119849408291</v>
       </c>
       <c r="M19">
-        <v>0.5724390278906171</v>
+        <v>0.2817380452481117</v>
       </c>
       <c r="N19">
-        <v>1.304111525217671</v>
+        <v>1.094046815930593</v>
       </c>
       <c r="O19">
-        <v>1.619662472889019</v>
+        <v>2.605335129546205</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,22 +1267,22 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>3.519973214872323</v>
+        <v>1.450337861983115</v>
       </c>
       <c r="C20">
-        <v>0.4337007634125882</v>
+        <v>0.1086078151011307</v>
       </c>
       <c r="D20">
-        <v>0.004608981382549615</v>
+        <v>0.09024940096992395</v>
       </c>
       <c r="E20">
-        <v>0.02481075429792567</v>
+        <v>0.05426085690970162</v>
       </c>
       <c r="F20">
-        <v>2.27724689196215</v>
+        <v>1.015981660125718</v>
       </c>
       <c r="G20">
-        <v>0.0008189869480523884</v>
+        <v>0.0008226500730328052</v>
       </c>
       <c r="H20">
         <v>0</v>
@@ -1291,22 +1291,22 @@
         <v>0</v>
       </c>
       <c r="J20">
-        <v>0.05664689630960229</v>
+        <v>0.06725387432134156</v>
       </c>
       <c r="K20">
-        <v>0.8242470281556109</v>
+        <v>1.187806006984488</v>
       </c>
       <c r="L20">
-        <v>0.2028541253060183</v>
+        <v>0.1742498342275454</v>
       </c>
       <c r="M20">
-        <v>0.5931768855304114</v>
+        <v>0.2918117609890061</v>
       </c>
       <c r="N20">
-        <v>1.284091937112386</v>
+        <v>1.076183957320413</v>
       </c>
       <c r="O20">
-        <v>1.650876648074544</v>
+        <v>2.619447719563823</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,22 +1314,22 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>3.959237823812146</v>
+        <v>1.629480638925372</v>
       </c>
       <c r="C21">
-        <v>0.4921260335553939</v>
+        <v>0.1128430116938546</v>
       </c>
       <c r="D21">
-        <v>0.005168787747863668</v>
+        <v>0.09936306639097836</v>
       </c>
       <c r="E21">
-        <v>0.02471292028933902</v>
+        <v>0.05551460932515084</v>
       </c>
       <c r="F21">
-        <v>2.427099615740758</v>
+        <v>1.046969409875217</v>
       </c>
       <c r="G21">
-        <v>0.0008103124858291494</v>
+        <v>0.0008182119929571566</v>
       </c>
       <c r="H21">
         <v>0</v>
@@ -1338,22 +1338,22 @@
         <v>0</v>
       </c>
       <c r="J21">
-        <v>0.05507122021593158</v>
+        <v>0.06551923484822808</v>
       </c>
       <c r="K21">
-        <v>0.9315533934825737</v>
+        <v>1.340048875105197</v>
       </c>
       <c r="L21">
-        <v>0.2218999230196346</v>
+        <v>0.1900125326189368</v>
       </c>
       <c r="M21">
-        <v>0.663959785820019</v>
+        <v>0.3259007985032696</v>
       </c>
       <c r="N21">
-        <v>1.219491161779445</v>
+        <v>1.0178495469283</v>
       </c>
       <c r="O21">
-        <v>1.760516734639367</v>
+        <v>2.67248290412644</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,22 +1361,22 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>4.251847596486755</v>
+        <v>1.747432049481887</v>
       </c>
       <c r="C22">
-        <v>0.5309102871272842</v>
+        <v>0.1156206046928077</v>
       </c>
       <c r="D22">
-        <v>0.005556423573350067</v>
+        <v>0.1053774013478375</v>
       </c>
       <c r="E22">
-        <v>0.02466015761455798</v>
+        <v>0.0563833106768783</v>
       </c>
       <c r="F22">
-        <v>2.530136632416088</v>
+        <v>1.068805330308678</v>
       </c>
       <c r="G22">
-        <v>0.0008047167115897702</v>
+        <v>0.000815369265681249</v>
       </c>
       <c r="H22">
         <v>0</v>
@@ -1385,22 +1385,22 @@
         <v>0</v>
       </c>
       <c r="J22">
-        <v>0.05406581089309537</v>
+        <v>0.06443914616691515</v>
       </c>
       <c r="K22">
-        <v>1.002969642516661</v>
+        <v>1.440094392371833</v>
       </c>
       <c r="L22">
-        <v>0.234638511384631</v>
+        <v>0.2004579613346777</v>
       </c>
       <c r="M22">
-        <v>0.7111441348923577</v>
+        <v>0.3483782476450514</v>
       </c>
       <c r="N22">
-        <v>1.179373489290228</v>
+        <v>0.9810191541184796</v>
       </c>
       <c r="O22">
-        <v>1.836070850368117</v>
+        <v>2.711558298735298</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,22 +1408,22 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>4.095129101104362</v>
+        <v>1.684393654659686</v>
       </c>
       <c r="C23">
-        <v>0.5101497954125591</v>
+        <v>0.1141371530993993</v>
       </c>
       <c r="D23">
-        <v>0.005347312559193185</v>
+        <v>0.1021618753509728</v>
       </c>
       <c r="E23">
-        <v>0.02468725580192377</v>
+        <v>0.05591504383386514</v>
       </c>
       <c r="F23">
-        <v>2.474647045827652</v>
+        <v>1.05700080165073</v>
       </c>
       <c r="G23">
-        <v>0.0008076970885279647</v>
+        <v>0.0008168813193401373</v>
       </c>
       <c r="H23">
         <v>0</v>
@@ -1432,22 +1432,22 @@
         <v>0</v>
       </c>
       <c r="J23">
-        <v>0.05460018781292941</v>
+        <v>0.0650106346565682</v>
       </c>
       <c r="K23">
-        <v>0.9647256565798443</v>
+        <v>1.386643676921892</v>
       </c>
       <c r="L23">
-        <v>0.2278112588059287</v>
+        <v>0.1948692824532969</v>
       </c>
       <c r="M23">
-        <v>0.6858697617214844</v>
+        <v>0.3363623123427786</v>
       </c>
       <c r="N23">
-        <v>1.200584633371697</v>
+        <v>1.000555086307337</v>
       </c>
       <c r="O23">
-        <v>1.795366074254588</v>
+        <v>2.690284165184977</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,22 +1455,22 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>3.512878029873264</v>
+        <v>1.44742331775268</v>
       </c>
       <c r="C24">
-        <v>0.4327547423466456</v>
+        <v>0.1085387310378039</v>
       </c>
       <c r="D24">
-        <v>0.004600150543971004</v>
+        <v>0.09010136746868369</v>
       </c>
       <c r="E24">
-        <v>0.02481253372040282</v>
+        <v>0.05424117257056871</v>
       </c>
       <c r="F24">
-        <v>2.274877262448413</v>
+        <v>1.015500745618297</v>
       </c>
       <c r="G24">
-        <v>0.0008191300822126426</v>
+        <v>0.000822723614848322</v>
       </c>
       <c r="H24">
         <v>0</v>
@@ -1479,22 +1479,22 @@
         <v>0</v>
       </c>
       <c r="J24">
-        <v>0.05667306212591949</v>
+        <v>0.06728311551864863</v>
       </c>
       <c r="K24">
-        <v>0.8225126827020119</v>
+        <v>1.185325899750552</v>
       </c>
       <c r="L24">
-        <v>0.2025473606018835</v>
+        <v>0.1739944908954243</v>
       </c>
       <c r="M24">
-        <v>0.5920341376937515</v>
+        <v>0.2912576902700721</v>
       </c>
       <c r="N24">
-        <v>1.285181587287127</v>
+        <v>1.077158671373709</v>
       </c>
       <c r="O24">
-        <v>1.649145427035421</v>
+        <v>2.618652142503464</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,22 +1502,22 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>2.904697472891428</v>
+        <v>1.19500085273944</v>
       </c>
       <c r="C25">
-        <v>0.3513218804002065</v>
+        <v>0.102530521664896</v>
       </c>
       <c r="D25">
-        <v>0.003867002322316182</v>
+        <v>0.07731707032533564</v>
       </c>
       <c r="E25">
-        <v>0.02499211834790538</v>
+        <v>0.05263641100634153</v>
       </c>
       <c r="F25">
-        <v>2.078498083074308</v>
+        <v>0.9770206784625159</v>
       </c>
       <c r="G25">
-        <v>0.0008318273106094665</v>
+        <v>0.000829285909320748</v>
       </c>
       <c r="H25">
         <v>0</v>
@@ -1526,22 +1526,22 @@
         <v>0</v>
       </c>
       <c r="J25">
-        <v>0.05901392649709569</v>
+        <v>0.06995768208665964</v>
       </c>
       <c r="K25">
-        <v>0.6736905405424167</v>
+        <v>0.9700798304409375</v>
       </c>
       <c r="L25">
-        <v>0.1763793663875148</v>
+        <v>0.1520350696425652</v>
       </c>
       <c r="M25">
-        <v>0.4941641398578156</v>
+        <v>0.2433462447674302</v>
       </c>
       <c r="N25">
-        <v>1.384721674264284</v>
+        <v>1.165088644982314</v>
       </c>
       <c r="O25">
-        <v>1.50599148210064</v>
+        <v>2.558903766070188</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_7_42/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_7_42/res_line/pl_mw.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:O25"/>
+  <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:15">
+    <row r="1" spans="1:17">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -415,1133 +415,1283 @@
       <c r="O1" s="1">
         <v>13</v>
       </c>
-    </row>
-    <row r="2" spans="1:15">
+      <c r="P1" s="1">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.011278393842815</v>
+        <v>0.8642092388095932</v>
       </c>
       <c r="C2">
-        <v>0.09812120689731074</v>
+        <v>0.1034917252082934</v>
       </c>
       <c r="D2">
-        <v>0.06807035254751526</v>
+        <v>0.1021979828218278</v>
       </c>
       <c r="E2">
-        <v>0.05161593203854942</v>
+        <v>0.05969160914152383</v>
       </c>
       <c r="F2">
-        <v>0.953556803130688</v>
+        <v>0.6333856851657345</v>
       </c>
       <c r="G2">
-        <v>0.000834355287350208</v>
+        <v>0.3864822552295024</v>
       </c>
       <c r="H2">
-        <v>0</v>
+        <v>0.006360179224644824</v>
       </c>
       <c r="I2">
         <v>0</v>
       </c>
       <c r="J2">
-        <v>0.07211239382576373</v>
+        <v>0.351109694830356</v>
       </c>
       <c r="K2">
-        <v>0.8127546036859314</v>
+        <v>0.3771157433333201</v>
       </c>
       <c r="L2">
-        <v>0.1362814605940628</v>
+        <v>0.06886039980246306</v>
       </c>
       <c r="M2">
-        <v>0.2085858726958953</v>
+        <v>0.7560591479193874</v>
       </c>
       <c r="N2">
-        <v>1.234139288567038</v>
+        <v>0.1631889276972061</v>
       </c>
       <c r="O2">
-        <v>2.528496366240262</v>
-      </c>
-    </row>
-    <row r="3" spans="1:15">
+        <v>0.1911487663397722</v>
+      </c>
+      <c r="P2">
+        <v>0.9653946844882473</v>
+      </c>
+      <c r="Q2">
+        <v>1.501022617077794</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.8878224832278647</v>
+        <v>0.7532826044034664</v>
       </c>
       <c r="C3">
-        <v>0.09513677037087831</v>
+        <v>0.09912334865963857</v>
       </c>
       <c r="D3">
-        <v>0.06189504609213259</v>
+        <v>0.0933210321937139</v>
       </c>
       <c r="E3">
-        <v>0.05101947828209674</v>
+        <v>0.05740613775478032</v>
       </c>
       <c r="F3">
-        <v>0.9404449909207884</v>
+        <v>0.6217443477437357</v>
       </c>
       <c r="G3">
-        <v>0.0008379454285728028</v>
+        <v>0.3809917660032056</v>
       </c>
       <c r="H3">
-        <v>0</v>
+        <v>0.008269733706288668</v>
       </c>
       <c r="I3">
         <v>0</v>
       </c>
       <c r="J3">
-        <v>0.07368525895098976</v>
+        <v>0.3526190497934891</v>
       </c>
       <c r="K3">
-        <v>0.7066378421137358</v>
+        <v>0.3802246769217064</v>
       </c>
       <c r="L3">
-        <v>0.1258344466065751</v>
+        <v>0.06748732441625016</v>
       </c>
       <c r="M3">
-        <v>0.1852954345194249</v>
+        <v>0.6595397503887597</v>
       </c>
       <c r="N3">
-        <v>1.283507084630505</v>
+        <v>0.1485128208852231</v>
       </c>
       <c r="O3">
-        <v>2.515680596139873</v>
-      </c>
-    </row>
-    <row r="4" spans="1:15">
+        <v>0.1680197213382471</v>
+      </c>
+      <c r="P3">
+        <v>0.9946662331786182</v>
+      </c>
+      <c r="Q3">
+        <v>1.492276185101389</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.8124562435345979</v>
+        <v>0.6851371438383183</v>
       </c>
       <c r="C4">
-        <v>0.09330464158755092</v>
+        <v>0.09642450115268986</v>
       </c>
       <c r="D4">
-        <v>0.05814463020397653</v>
+        <v>0.08789437589054927</v>
       </c>
       <c r="E4">
-        <v>0.05069852714049716</v>
+        <v>0.05600095058157883</v>
       </c>
       <c r="F4">
-        <v>0.933694095743725</v>
+        <v>0.6152243589082573</v>
       </c>
       <c r="G4">
-        <v>0.000840228016487098</v>
+        <v>0.3781155838621828</v>
       </c>
       <c r="H4">
-        <v>0</v>
+        <v>0.00961680100193809</v>
       </c>
       <c r="I4">
         <v>0</v>
       </c>
       <c r="J4">
-        <v>0.07470557820728807</v>
+        <v>0.3538693872373173</v>
       </c>
       <c r="K4">
-        <v>0.6416641559382867</v>
+        <v>0.3825313287081933</v>
       </c>
       <c r="L4">
-        <v>0.1195240810492066</v>
+        <v>0.06661974002836768</v>
       </c>
       <c r="M4">
-        <v>0.1711099490714787</v>
+        <v>0.6001722195543806</v>
       </c>
       <c r="N4">
-        <v>1.315051300209014</v>
+        <v>0.1394948536388796</v>
       </c>
       <c r="O4">
-        <v>2.51144418821896</v>
-      </c>
-    </row>
-    <row r="5" spans="1:15">
+        <v>0.1538181816732305</v>
+      </c>
+      <c r="P4">
+        <v>1.013349610326042</v>
+      </c>
+      <c r="Q4">
+        <v>1.488625523981469</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.7818422998533094</v>
+        <v>0.657354747080376</v>
       </c>
       <c r="C5">
-        <v>0.09255791552963899</v>
+        <v>0.09532030403984493</v>
       </c>
       <c r="D5">
-        <v>0.0566261732088762</v>
+        <v>0.08568861990587351</v>
       </c>
       <c r="E5">
-        <v>0.05057889227190238</v>
+        <v>0.05542769272621584</v>
       </c>
       <c r="F5">
-        <v>0.9312591970023334</v>
+        <v>0.6127208996474565</v>
       </c>
       <c r="G5">
-        <v>0.0008411781350834013</v>
+        <v>0.3770640158340868</v>
       </c>
       <c r="H5">
-        <v>0</v>
+        <v>0.01020813437768387</v>
       </c>
       <c r="I5">
         <v>0</v>
       </c>
       <c r="J5">
-        <v>0.0751349488248545</v>
+        <v>0.3544585803398874</v>
       </c>
       <c r="K5">
-        <v>0.6152238845301383</v>
+        <v>0.3835690199265471</v>
       </c>
       <c r="L5">
-        <v>0.1169775255412659</v>
+        <v>0.06625985045312088</v>
       </c>
       <c r="M5">
-        <v>0.1653558950006158</v>
+        <v>0.5759502512882904</v>
       </c>
       <c r="N5">
-        <v>1.32821038063093</v>
+        <v>0.1358176898539298</v>
       </c>
       <c r="O5">
-        <v>2.510601605676456</v>
-      </c>
-    </row>
-    <row r="6" spans="1:15">
+        <v>0.1480301578770806</v>
+      </c>
+      <c r="P5">
+        <v>1.021139020691365</v>
+      </c>
+      <c r="Q5">
+        <v>1.487558291744065</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.776764502884447</v>
+        <v>0.6527406439270749</v>
       </c>
       <c r="C6">
-        <v>0.09243390945003682</v>
+        <v>0.09513668167100064</v>
       </c>
       <c r="D6">
-        <v>0.05637461630682594</v>
+        <v>0.08532268743390148</v>
       </c>
       <c r="E6">
-        <v>0.05055969423497153</v>
+        <v>0.05533246106334033</v>
       </c>
       <c r="F6">
-        <v>0.9308736744133839</v>
+        <v>0.612314347226075</v>
       </c>
       <c r="G6">
-        <v>0.0008413371139739107</v>
+        <v>0.3768965681683127</v>
       </c>
       <c r="H6">
-        <v>0</v>
+        <v>0.01030884181663375</v>
       </c>
       <c r="I6">
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0.07520706181822234</v>
+        <v>0.3545611788224576</v>
       </c>
       <c r="K6">
-        <v>0.6108354846031858</v>
+        <v>0.3837471633523357</v>
       </c>
       <c r="L6">
-        <v>0.1165561455520816</v>
+        <v>0.0661997029102892</v>
       </c>
       <c r="M6">
-        <v>0.1644019842754929</v>
+        <v>0.5719263629558355</v>
       </c>
       <c r="N6">
-        <v>1.330413680264728</v>
+        <v>0.1352069465837502</v>
       </c>
       <c r="O6">
-        <v>2.510514232606667</v>
-      </c>
-    </row>
-    <row r="7" spans="1:15">
+        <v>0.147068993304643</v>
+      </c>
+      <c r="P6">
+        <v>1.022442980820433</v>
+      </c>
+      <c r="Q6">
+        <v>1.487406129949832</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.8120429892116476</v>
+        <v>0.6847625160866357</v>
       </c>
       <c r="C7">
-        <v>0.09329457171515543</v>
+        <v>0.09640962762495775</v>
       </c>
       <c r="D7">
-        <v>0.05812411245570104</v>
+        <v>0.08786460585417899</v>
       </c>
       <c r="E7">
-        <v>0.05069686883075342</v>
+        <v>0.05599322218818692</v>
       </c>
       <c r="F7">
-        <v>0.9336599915792902</v>
+        <v>0.6151899805901593</v>
       </c>
       <c r="G7">
-        <v>0.0008402407489573221</v>
+        <v>0.3781009192951714</v>
       </c>
       <c r="H7">
-        <v>0</v>
+        <v>0.009624606251866272</v>
       </c>
       <c r="I7">
         <v>0</v>
       </c>
       <c r="J7">
-        <v>0.07471131403682563</v>
+        <v>0.3538770129164135</v>
       </c>
       <c r="K7">
-        <v>0.6413074346019698</v>
+        <v>0.3825449307325215</v>
       </c>
       <c r="L7">
-        <v>0.1194896377768941</v>
+        <v>0.06661491234211425</v>
       </c>
       <c r="M7">
-        <v>0.1710322428960147</v>
+        <v>0.5998456757637882</v>
       </c>
       <c r="N7">
-        <v>1.315227541836757</v>
+        <v>0.1394452720363404</v>
       </c>
       <c r="O7">
-        <v>2.511429284623134</v>
-      </c>
-    </row>
-    <row r="8" spans="1:15">
+        <v>0.1537401264548386</v>
+      </c>
+      <c r="P7">
+        <v>1.013453953031794</v>
+      </c>
+      <c r="Q7">
+        <v>1.488609444082556</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.9686132691978742</v>
+        <v>0.8259670154367598</v>
       </c>
       <c r="C8">
-        <v>0.09709197918380141</v>
+        <v>0.1019888327812239</v>
       </c>
       <c r="D8">
-        <v>0.06593223333540976</v>
+        <v>0.09913205194582986</v>
       </c>
       <c r="E8">
-        <v>0.05140073689349656</v>
+        <v>0.05890387666798702</v>
       </c>
       <c r="F8">
-        <v>0.948759479383213</v>
+        <v>0.6292387513240456</v>
       </c>
       <c r="G8">
-        <v>0.0008355771008845447</v>
+        <v>0.3844839604511208</v>
       </c>
       <c r="H8">
-        <v>0</v>
+        <v>0.006981436084067261</v>
       </c>
       <c r="I8">
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0.07264330461950763</v>
+        <v>0.3515619181766851</v>
       </c>
       <c r="K8">
-        <v>0.7761221865305572</v>
+        <v>0.3781037374469918</v>
       </c>
       <c r="L8">
-        <v>0.1326569608361723</v>
+        <v>0.06839194126874037</v>
       </c>
       <c r="M8">
-        <v>0.2005300752185342</v>
+        <v>0.7227989975075957</v>
       </c>
       <c r="N8">
-        <v>1.250902317121875</v>
+        <v>0.1581296609892888</v>
       </c>
       <c r="O8">
-        <v>2.523305293059707</v>
-      </c>
-    </row>
-    <row r="9" spans="1:15">
+        <v>0.183173458296622</v>
+      </c>
+      <c r="P8">
+        <v>0.9753382809878435</v>
+      </c>
+      <c r="Q8">
+        <v>1.497642574267147</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.279659370893171</v>
+        <v>1.102764012674413</v>
       </c>
       <c r="C9">
-        <v>0.1045514002798313</v>
+        <v>0.1128081618950603</v>
       </c>
       <c r="D9">
-        <v>0.08159591280334411</v>
+        <v>0.121433813730448</v>
       </c>
       <c r="E9">
-        <v>0.05315120827902398</v>
+        <v>0.06460414533574976</v>
       </c>
       <c r="F9">
-        <v>0.9891920314976232</v>
+        <v>0.6619771782038555</v>
       </c>
       <c r="G9">
-        <v>0.0008270393606537681</v>
+        <v>0.4011155615997239</v>
       </c>
       <c r="H9">
-        <v>0</v>
+        <v>0.003253218460881779</v>
       </c>
       <c r="I9">
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0.06902751616388869</v>
+        <v>0.3496693221566645</v>
       </c>
       <c r="K9">
-        <v>1.042375036944776</v>
+        <v>0.3726583292840751</v>
       </c>
       <c r="L9">
-        <v>0.1593635509086369</v>
+        <v>0.07169058104739445</v>
       </c>
       <c r="M9">
-        <v>0.2593973271949324</v>
+        <v>0.9632393355387308</v>
       </c>
       <c r="N9">
-        <v>1.134783930980539</v>
+        <v>0.1947443340870407</v>
       </c>
       <c r="O9">
-        <v>2.576824778993199</v>
-      </c>
-    </row>
-    <row r="10" spans="1:15">
+        <v>0.2409280783844743</v>
+      </c>
+      <c r="P9">
+        <v>0.9063639474506804</v>
+      </c>
+      <c r="Q9">
+        <v>1.529565079660912</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.511461765830433</v>
+        <v>1.301280467077476</v>
       </c>
       <c r="C10">
-        <v>0.1100552754240738</v>
+        <v>0.1215301578933392</v>
       </c>
       <c r="D10">
-        <v>0.09335584112009343</v>
+        <v>0.1359784384359841</v>
       </c>
       <c r="E10">
-        <v>0.05467913004970981</v>
+        <v>0.06711137046504057</v>
       </c>
       <c r="F10">
-        <v>1.02624376090624</v>
+        <v>0.6830089773725021</v>
       </c>
       <c r="G10">
-        <v>0.0008211180463847835</v>
+        <v>0.4120047572392238</v>
       </c>
       <c r="H10">
-        <v>0</v>
+        <v>0.001768898373398109</v>
       </c>
       <c r="I10">
         <v>0</v>
       </c>
       <c r="J10">
-        <v>0.06664840626799773</v>
+        <v>0.3479477201831855</v>
       </c>
       <c r="K10">
-        <v>1.239794374957768</v>
+        <v>0.3678323271976147</v>
       </c>
       <c r="L10">
-        <v>0.1796133586672255</v>
+        <v>0.07311886669086309</v>
       </c>
       <c r="M10">
-        <v>0.3034358549703313</v>
+        <v>1.138534163152627</v>
       </c>
       <c r="N10">
-        <v>1.055937040698169</v>
+        <v>0.2148120835814069</v>
       </c>
       <c r="O10">
-        <v>2.636642759677727</v>
-      </c>
-    </row>
-    <row r="11" spans="1:15">
+        <v>0.2794005019064087</v>
+      </c>
+      <c r="P10">
+        <v>0.8602494943857728</v>
+      </c>
+      <c r="Q10">
+        <v>1.549467676474578</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.617823513025769</v>
+        <v>1.347096687495053</v>
       </c>
       <c r="C11">
-        <v>0.1125680514622545</v>
+        <v>0.1332706796878682</v>
       </c>
       <c r="D11">
-        <v>0.09876921256812921</v>
+        <v>0.1256256521355965</v>
       </c>
       <c r="E11">
-        <v>0.05543053082540617</v>
+        <v>0.05547358180621842</v>
       </c>
       <c r="F11">
-        <v>1.04487087337165</v>
+        <v>0.6378444219027628</v>
       </c>
       <c r="G11">
-        <v>0.0008184961638984733</v>
+        <v>0.3824578069791684</v>
       </c>
       <c r="H11">
-        <v>0</v>
+        <v>0.02031216454430762</v>
       </c>
       <c r="I11">
         <v>0</v>
       </c>
       <c r="J11">
-        <v>0.06562853586627426</v>
+        <v>0.329861655114108</v>
       </c>
       <c r="K11">
-        <v>1.330153395255564</v>
+        <v>0.3410087627329261</v>
       </c>
       <c r="L11">
-        <v>0.1889829607665021</v>
+        <v>0.0701922560222914</v>
       </c>
       <c r="M11">
-        <v>0.3236806892059079</v>
+        <v>1.207786329239354</v>
       </c>
       <c r="N11">
-        <v>1.021554949449367</v>
+        <v>0.1686882119822357</v>
       </c>
       <c r="O11">
-        <v>2.668793850910788</v>
-      </c>
-    </row>
-    <row r="12" spans="1:15">
+        <v>0.2622797126634957</v>
+      </c>
+      <c r="P11">
+        <v>0.8505322211333279</v>
+      </c>
+      <c r="Q11">
+        <v>1.44911576733071</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.658248409125605</v>
+        <v>1.342908111518057</v>
       </c>
       <c r="C12">
-        <v>0.113521210817531</v>
+        <v>0.1420980081722121</v>
       </c>
       <c r="D12">
-        <v>0.1008290305948947</v>
+        <v>0.1141693835296564</v>
       </c>
       <c r="E12">
-        <v>0.05572349979405189</v>
+        <v>0.04762089331550623</v>
       </c>
       <c r="F12">
-        <v>1.052194891463273</v>
+        <v>0.5958514025959474</v>
       </c>
       <c r="G12">
-        <v>0.0008175132645595881</v>
+        <v>0.3555685501036123</v>
       </c>
       <c r="H12">
-        <v>0</v>
+        <v>0.05909301487112373</v>
       </c>
       <c r="I12">
         <v>0</v>
       </c>
       <c r="J12">
-        <v>0.0652515107558802</v>
+        <v>0.3149953801498455</v>
       </c>
       <c r="K12">
-        <v>1.364462909320878</v>
+        <v>0.3199929664822392</v>
       </c>
       <c r="L12">
-        <v>0.1925555051279986</v>
+        <v>0.07309901015680431</v>
       </c>
       <c r="M12">
-        <v>0.3313806965920776</v>
+        <v>1.228968941371335</v>
       </c>
       <c r="N12">
-        <v>1.008756609751599</v>
+        <v>0.1312671942483306</v>
       </c>
       <c r="O12">
-        <v>2.681722237428545</v>
-      </c>
-    </row>
-    <row r="13" spans="1:15">
+        <v>0.240228730968326</v>
+      </c>
+      <c r="P12">
+        <v>0.8555275594249565</v>
+      </c>
+      <c r="Q12">
+        <v>1.361032141327613</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.649535324953348</v>
+        <v>1.299991450050385</v>
       </c>
       <c r="C13">
-        <v>0.1133158531014402</v>
+        <v>0.1490738149057904</v>
       </c>
       <c r="D13">
-        <v>0.1003849599019446</v>
+        <v>0.1012583315433417</v>
       </c>
       <c r="E13">
-        <v>0.05566002333728015</v>
+        <v>0.04220429010088944</v>
       </c>
       <c r="F13">
-        <v>1.050605252416744</v>
+        <v>0.5537551820804083</v>
       </c>
       <c r="G13">
-        <v>0.000817724513039804</v>
+        <v>0.329038156503465</v>
       </c>
       <c r="H13">
-        <v>0</v>
+        <v>0.1150774612560639</v>
       </c>
       <c r="I13">
         <v>0</v>
       </c>
       <c r="J13">
-        <v>0.06533229828745846</v>
+        <v>0.3016503454218977</v>
       </c>
       <c r="K13">
-        <v>1.35706940805963</v>
+        <v>0.302094432683699</v>
       </c>
       <c r="L13">
-        <v>0.1917849754934693</v>
+        <v>0.08046973363744314</v>
       </c>
       <c r="M13">
-        <v>0.3297208070007898</v>
+        <v>1.214176637438925</v>
       </c>
       <c r="N13">
-        <v>1.011502985028082</v>
+        <v>0.09851649509807459</v>
       </c>
       <c r="O13">
-        <v>2.678903650513377</v>
-      </c>
-    </row>
-    <row r="14" spans="1:15">
+        <v>0.2132584772120438</v>
+      </c>
+      <c r="P13">
+        <v>0.8712915702467825</v>
+      </c>
+      <c r="Q13">
+        <v>1.276813705513433</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.621146227997713</v>
+        <v>1.252569520474538</v>
       </c>
       <c r="C14">
-        <v>0.1126464339078908</v>
+        <v>0.1531414125801689</v>
       </c>
       <c r="D14">
-        <v>0.09893847245616882</v>
+        <v>0.09169644724711645</v>
       </c>
       <c r="E14">
-        <v>0.05545446266535059</v>
+        <v>0.03985751095335965</v>
       </c>
       <c r="F14">
-        <v>1.045467914494665</v>
+        <v>0.524579477620037</v>
       </c>
       <c r="G14">
-        <v>0.0008184151029382693</v>
+        <v>0.3108422230326653</v>
       </c>
       <c r="H14">
-        <v>0</v>
+        <v>0.1646423203497562</v>
       </c>
       <c r="I14">
         <v>0</v>
       </c>
       <c r="J14">
-        <v>0.06559733263243572</v>
+        <v>0.2930809701926833</v>
       </c>
       <c r="K14">
-        <v>1.332974127012648</v>
+        <v>0.291149548313296</v>
       </c>
       <c r="L14">
-        <v>0.1892763749385722</v>
+        <v>0.08828310024557595</v>
       </c>
       <c r="M14">
-        <v>0.3243134777073706</v>
+        <v>1.187554215378896</v>
       </c>
       <c r="N14">
-        <v>1.020497538716366</v>
+        <v>0.07866108509457348</v>
       </c>
       <c r="O14">
-        <v>2.669842119370003</v>
-      </c>
-    </row>
-    <row r="15" spans="1:15">
+        <v>0.1924139016353976</v>
+      </c>
+      <c r="P14">
+        <v>0.8873475529107111</v>
+      </c>
+      <c r="Q14">
+        <v>1.220236081511871</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.603776874176674</v>
+        <v>1.232951056442573</v>
       </c>
       <c r="C15">
-        <v>0.1122366171834628</v>
+        <v>0.153616101449856</v>
       </c>
       <c r="D15">
-        <v>0.09805376772401075</v>
+        <v>0.08903315032595316</v>
       </c>
       <c r="E15">
-        <v>0.05532965869106121</v>
+        <v>0.03947974846400615</v>
       </c>
       <c r="F15">
-        <v>1.04235682930414</v>
+        <v>0.5174163766953299</v>
       </c>
       <c r="G15">
-        <v>0.0008188393938642524</v>
+        <v>0.3064613069255628</v>
       </c>
       <c r="H15">
-        <v>0</v>
+        <v>0.1772585167658605</v>
       </c>
       <c r="I15">
         <v>0</v>
       </c>
       <c r="J15">
-        <v>0.06576087531324681</v>
+        <v>0.2913198369707217</v>
       </c>
       <c r="K15">
-        <v>1.318227525107545</v>
+        <v>0.2890749746549979</v>
       </c>
       <c r="L15">
-        <v>0.1877430273569445</v>
+        <v>0.09035985399679092</v>
       </c>
       <c r="M15">
-        <v>0.3210058269411675</v>
+        <v>1.173440939540797</v>
       </c>
       <c r="N15">
-        <v>1.026036035623212</v>
+        <v>0.07411829340647103</v>
       </c>
       <c r="O15">
-        <v>2.664391121581843</v>
-      </c>
-    </row>
-    <row r="16" spans="1:15">
+        <v>0.1862696940213588</v>
+      </c>
+      <c r="P15">
+        <v>0.8929814667710048</v>
+      </c>
+      <c r="Q15">
+        <v>1.20722839679857</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.504530557120233</v>
+        <v>1.157049592018353</v>
       </c>
       <c r="C16">
-        <v>0.109891268684791</v>
+        <v>0.1481182400753482</v>
       </c>
       <c r="D16">
-        <v>0.09300340807308061</v>
+        <v>0.08569954607164476</v>
       </c>
       <c r="E16">
-        <v>0.05463118557653601</v>
+        <v>0.03957365571651139</v>
       </c>
       <c r="F16">
-        <v>1.025063398148617</v>
+        <v>0.5169418228362588</v>
       </c>
       <c r="G16">
-        <v>0.0008212908054427535</v>
+        <v>0.307010774070136</v>
       </c>
       <c r="H16">
-        <v>0</v>
+        <v>0.165139301882391</v>
       </c>
       <c r="I16">
         <v>0</v>
       </c>
       <c r="J16">
-        <v>0.06671633005265321</v>
+        <v>0.2945815713780249</v>
       </c>
       <c r="K16">
-        <v>1.233901410608098</v>
+        <v>0.2945261027540234</v>
       </c>
       <c r="L16">
-        <v>0.1790043592221409</v>
+        <v>0.08786578974614301</v>
       </c>
       <c r="M16">
-        <v>0.302117341657528</v>
+        <v>1.101022931149572</v>
       </c>
       <c r="N16">
-        <v>1.058214541029574</v>
+        <v>0.07300668648612785</v>
       </c>
       <c r="O16">
-        <v>2.634644634536642</v>
-      </c>
-    </row>
-    <row r="17" spans="1:15">
+        <v>0.1759235027773478</v>
+      </c>
+      <c r="P16">
+        <v>0.9071687630174239</v>
+      </c>
+      <c r="Q16">
+        <v>1.215047739518127</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.443891655267237</v>
+        <v>1.124047127409654</v>
       </c>
       <c r="C17">
-        <v>0.1084550111444642</v>
+        <v>0.1417482887596719</v>
       </c>
       <c r="D17">
-        <v>0.08992200102278503</v>
+        <v>0.08813949027839385</v>
       </c>
       <c r="E17">
-        <v>0.05421735271660033</v>
+        <v>0.04066267060674233</v>
       </c>
       <c r="F17">
-        <v>1.014919046943461</v>
+        <v>0.532061884564115</v>
       </c>
       <c r="G17">
-        <v>0.0008228127896295476</v>
+        <v>0.317124944235033</v>
       </c>
       <c r="H17">
-        <v>0</v>
+        <v>0.1277341366478169</v>
       </c>
       <c r="I17">
         <v>0</v>
       </c>
       <c r="J17">
-        <v>0.06731859434722409</v>
+        <v>0.3016826136269728</v>
       </c>
       <c r="K17">
-        <v>1.182320515252798</v>
+        <v>0.3045392680280621</v>
       </c>
       <c r="L17">
-        <v>0.1736851320664314</v>
+        <v>0.08138605503111052</v>
       </c>
       <c r="M17">
-        <v>0.2905863264211135</v>
+        <v>1.059732787443266</v>
       </c>
       <c r="N17">
-        <v>1.0783409222422</v>
+        <v>0.08203473435841246</v>
       </c>
       <c r="O17">
-        <v>2.617691129435997</v>
-      </c>
-    </row>
-    <row r="18" spans="1:15">
+        <v>0.1788883122548199</v>
+      </c>
+      <c r="P17">
+        <v>0.9097539626941185</v>
+      </c>
+      <c r="Q17">
+        <v>1.251255489161153</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.409098702842385</v>
+        <v>1.123831825576332</v>
       </c>
       <c r="C18">
-        <v>0.1076297431387871</v>
+        <v>0.1342172765777576</v>
       </c>
       <c r="D18">
-        <v>0.08815560868220729</v>
+        <v>0.09606110979651561</v>
       </c>
       <c r="E18">
-        <v>0.0539846093841394</v>
+        <v>0.04397307352216906</v>
       </c>
       <c r="F18">
-        <v>1.00925009784256</v>
+        <v>0.5627441382140219</v>
       </c>
       <c r="G18">
-        <v>0.0008236949715308869</v>
+        <v>0.3368644176081617</v>
       </c>
       <c r="H18">
-        <v>0</v>
+        <v>0.07500304780415235</v>
       </c>
       <c r="I18">
         <v>0</v>
       </c>
       <c r="J18">
-        <v>0.06767086113512555</v>
+        <v>0.3129489663001976</v>
       </c>
       <c r="K18">
-        <v>1.152703664219558</v>
+        <v>0.3199648089077129</v>
       </c>
       <c r="L18">
-        <v>0.1706403990103453</v>
+        <v>0.0734398677436392</v>
       </c>
       <c r="M18">
-        <v>0.2839736864280553</v>
+        <v>1.040338812206215</v>
       </c>
       <c r="N18">
-        <v>1.090056438151025</v>
+        <v>0.103787939254552</v>
       </c>
       <c r="O18">
-        <v>2.608402117536741</v>
-      </c>
-    </row>
-    <row r="19" spans="1:15">
+        <v>0.1940340531948337</v>
+      </c>
+      <c r="P18">
+        <v>0.9041392153812247</v>
+      </c>
+      <c r="Q18">
+        <v>1.316644336844305</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.397332506782902</v>
+        <v>1.149818056791645</v>
       </c>
       <c r="C19">
-        <v>0.1073504545168689</v>
+        <v>0.1267122820180262</v>
       </c>
       <c r="D19">
-        <v>0.08755853928124679</v>
+        <v>0.1082503256123957</v>
       </c>
       <c r="E19">
-        <v>0.05390670406224274</v>
+        <v>0.0506887200223165</v>
       </c>
       <c r="F19">
-        <v>1.007358710801768</v>
+        <v>0.6047266065459596</v>
       </c>
       <c r="G19">
-        <v>0.0008239948378913808</v>
+        <v>0.3635516859766952</v>
       </c>
       <c r="H19">
-        <v>0</v>
+        <v>0.02947174194814295</v>
       </c>
       <c r="I19">
         <v>0</v>
       </c>
       <c r="J19">
-        <v>0.06779113308172313</v>
+        <v>0.3269700499134984</v>
       </c>
       <c r="K19">
-        <v>1.142684300576775</v>
+        <v>0.3393101309762905</v>
       </c>
       <c r="L19">
-        <v>0.1696119849408291</v>
+        <v>0.06882416675956016</v>
       </c>
       <c r="M19">
-        <v>0.2817380452481117</v>
+        <v>1.039847397381493</v>
       </c>
       <c r="N19">
-        <v>1.094046815930593</v>
+        <v>0.1387864798397018</v>
       </c>
       <c r="O19">
-        <v>2.605335129546205</v>
-      </c>
-    </row>
-    <row r="20" spans="1:15">
+        <v>0.2186313660399719</v>
+      </c>
+      <c r="P19">
+        <v>0.8944576893738976</v>
+      </c>
+      <c r="Q19">
+        <v>1.40257977598128</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.450337861983115</v>
+        <v>1.248932280626434</v>
       </c>
       <c r="C20">
-        <v>0.1086078151011307</v>
+        <v>0.1192740496728959</v>
       </c>
       <c r="D20">
-        <v>0.09024940096992395</v>
+        <v>0.1320674485885718</v>
       </c>
       <c r="E20">
-        <v>0.05426085690970162</v>
+        <v>0.06637978848814718</v>
       </c>
       <c r="F20">
-        <v>1.015981660125718</v>
+        <v>0.6769696584333715</v>
       </c>
       <c r="G20">
-        <v>0.0008226500730328052</v>
+        <v>0.4087737468843287</v>
       </c>
       <c r="H20">
-        <v>0</v>
+        <v>0.002079118396403956</v>
       </c>
       <c r="I20">
         <v>0</v>
       </c>
       <c r="J20">
-        <v>0.06725387432134156</v>
+        <v>0.3481904820331536</v>
       </c>
       <c r="K20">
-        <v>1.187806006984488</v>
+        <v>0.3688207751292083</v>
       </c>
       <c r="L20">
-        <v>0.1742498342275454</v>
+        <v>0.0727043113219219</v>
       </c>
       <c r="M20">
-        <v>0.2918117609890061</v>
+        <v>1.092463850139694</v>
       </c>
       <c r="N20">
-        <v>1.076183957320413</v>
+        <v>0.2092554961379065</v>
       </c>
       <c r="O20">
-        <v>2.619447719563823</v>
-      </c>
-    </row>
-    <row r="21" spans="1:15">
+        <v>0.2691290910949675</v>
+      </c>
+      <c r="P20">
+        <v>0.8721049149731464</v>
+      </c>
+      <c r="Q20">
+        <v>1.543017380871049</v>
+      </c>
+    </row>
+    <row r="21" spans="1:17">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.629480638925372</v>
+        <v>1.409221707756245</v>
       </c>
       <c r="C21">
-        <v>0.1128430116938546</v>
+        <v>0.1246723168160528</v>
       </c>
       <c r="D21">
-        <v>0.09936306639097836</v>
+        <v>0.1463621481141359</v>
       </c>
       <c r="E21">
-        <v>0.05551460932515084</v>
+        <v>0.07092035571363731</v>
       </c>
       <c r="F21">
-        <v>1.046969409875217</v>
+        <v>0.7043225111696785</v>
       </c>
       <c r="G21">
-        <v>0.0008182119929571566</v>
+        <v>0.4244455592258163</v>
       </c>
       <c r="H21">
-        <v>0</v>
+        <v>0.0008867093481293997</v>
       </c>
       <c r="I21">
         <v>0</v>
       </c>
       <c r="J21">
-        <v>0.06551923484822808</v>
+        <v>0.3506396008314141</v>
       </c>
       <c r="K21">
-        <v>1.340048875105197</v>
+        <v>0.3704397819198526</v>
       </c>
       <c r="L21">
-        <v>0.1900125326189368</v>
+        <v>0.07516267571237556</v>
       </c>
       <c r="M21">
-        <v>0.3259007985032696</v>
+        <v>1.228821631946914</v>
       </c>
       <c r="N21">
-        <v>1.0178495469283</v>
+        <v>0.2352819268675006</v>
       </c>
       <c r="O21">
-        <v>2.67248290412644</v>
-      </c>
-    </row>
-    <row r="22" spans="1:15">
+        <v>0.304932107941795</v>
+      </c>
+      <c r="P21">
+        <v>0.8366615699969593</v>
+      </c>
+      <c r="Q21">
+        <v>1.581688864584635</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.747432049481887</v>
+        <v>1.511541957807765</v>
       </c>
       <c r="C22">
-        <v>0.1156206046928077</v>
+        <v>0.128615997309474</v>
       </c>
       <c r="D22">
-        <v>0.1053774013478375</v>
+        <v>0.1547276221710945</v>
       </c>
       <c r="E22">
-        <v>0.0563833106768783</v>
+        <v>0.0730321861747214</v>
       </c>
       <c r="F22">
-        <v>1.068805330308678</v>
+        <v>0.7196248024231195</v>
       </c>
       <c r="G22">
-        <v>0.000815369265681249</v>
+        <v>0.4331885690469761</v>
       </c>
       <c r="H22">
-        <v>0</v>
+        <v>0.0004424036723422731</v>
       </c>
       <c r="I22">
         <v>0</v>
       </c>
       <c r="J22">
-        <v>0.06443914616691515</v>
+        <v>0.3515423165281675</v>
       </c>
       <c r="K22">
-        <v>1.440094392371833</v>
+        <v>0.3704239252517105</v>
       </c>
       <c r="L22">
-        <v>0.2004579613346777</v>
+        <v>0.07629405902033159</v>
       </c>
       <c r="M22">
-        <v>0.3483782476450514</v>
+        <v>1.317385999864911</v>
       </c>
       <c r="N22">
-        <v>0.9810191541184796</v>
+        <v>0.2488185712122259</v>
       </c>
       <c r="O22">
-        <v>2.711558298735298</v>
-      </c>
-    </row>
-    <row r="23" spans="1:15">
+        <v>0.3263119844415456</v>
+      </c>
+      <c r="P22">
+        <v>0.814649380961658</v>
+      </c>
+      <c r="Q22">
+        <v>1.602314814261803</v>
+      </c>
+    </row>
+    <row r="23" spans="1:17">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.684393654659686</v>
+        <v>1.456917577305575</v>
       </c>
       <c r="C23">
-        <v>0.1141371530993993</v>
+        <v>0.1265115097079601</v>
       </c>
       <c r="D23">
-        <v>0.1021618753509728</v>
+        <v>0.15025931640848</v>
       </c>
       <c r="E23">
-        <v>0.05591504383386514</v>
+        <v>0.07190454558516102</v>
       </c>
       <c r="F23">
-        <v>1.05700080165073</v>
+        <v>0.7113890935322615</v>
       </c>
       <c r="G23">
-        <v>0.0008168813193401373</v>
+        <v>0.4284661594976171</v>
       </c>
       <c r="H23">
-        <v>0</v>
+        <v>0.0006595860932057107</v>
       </c>
       <c r="I23">
         <v>0</v>
       </c>
       <c r="J23">
-        <v>0.0650106346565682</v>
+        <v>0.3510275157193661</v>
       </c>
       <c r="K23">
-        <v>1.386643676921892</v>
+        <v>0.3703910587756987</v>
       </c>
       <c r="L23">
-        <v>0.1948692824532969</v>
+        <v>0.07569147311361846</v>
       </c>
       <c r="M23">
-        <v>0.3363623123427786</v>
+        <v>1.270111178810168</v>
       </c>
       <c r="N23">
-        <v>1.000555086307337</v>
+        <v>0.24159177655973</v>
       </c>
       <c r="O23">
-        <v>2.690284165184977</v>
-      </c>
-    </row>
-    <row r="24" spans="1:15">
+        <v>0.3148976484842905</v>
+      </c>
+      <c r="P23">
+        <v>0.8263290865981219</v>
+      </c>
+      <c r="Q23">
+        <v>1.591118865103766</v>
+      </c>
+    </row>
+    <row r="24" spans="1:17">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.44742331775268</v>
+        <v>1.250315305255725</v>
       </c>
       <c r="C24">
-        <v>0.1085387310378039</v>
+        <v>0.1185318459216873</v>
       </c>
       <c r="D24">
-        <v>0.09010136746868369</v>
+        <v>0.1334101911250514</v>
       </c>
       <c r="E24">
-        <v>0.05424117257056871</v>
+        <v>0.06764386201698613</v>
       </c>
       <c r="F24">
-        <v>1.015500745618297</v>
+        <v>0.6816687434918904</v>
       </c>
       <c r="G24">
-        <v>0.000822723614848322</v>
+        <v>0.4117808436060528</v>
       </c>
       <c r="H24">
-        <v>0</v>
+        <v>0.001908793619815996</v>
       </c>
       <c r="I24">
         <v>0</v>
       </c>
       <c r="J24">
-        <v>0.06728311551864863</v>
+        <v>0.3497888622158598</v>
       </c>
       <c r="K24">
-        <v>1.185325899750552</v>
+        <v>0.3711558882258856</v>
       </c>
       <c r="L24">
-        <v>0.1739944908954243</v>
+        <v>0.07338031282544932</v>
       </c>
       <c r="M24">
-        <v>0.2912576902700721</v>
+        <v>1.091177261066264</v>
       </c>
       <c r="N24">
-        <v>1.077158671373709</v>
+        <v>0.214261351047881</v>
       </c>
       <c r="O24">
-        <v>2.618652142503464</v>
-      </c>
-    </row>
-    <row r="25" spans="1:15">
+        <v>0.2717379392815502</v>
+      </c>
+      <c r="P24">
+        <v>0.8720477407637119</v>
+      </c>
+      <c r="Q24">
+        <v>1.552736888105031</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.19500085273944</v>
+        <v>1.027865711769692</v>
       </c>
       <c r="C25">
-        <v>0.102530521664896</v>
+        <v>0.109892616700364</v>
       </c>
       <c r="D25">
-        <v>0.07731707032533564</v>
+        <v>0.1153758250724906</v>
       </c>
       <c r="E25">
-        <v>0.05263641100634153</v>
+        <v>0.06306174303776224</v>
       </c>
       <c r="F25">
-        <v>0.9770206784625159</v>
+        <v>0.6525347329812092</v>
       </c>
       <c r="G25">
-        <v>0.000829285909320748</v>
+        <v>0.3961485487116718</v>
       </c>
       <c r="H25">
-        <v>0</v>
+        <v>0.0040960046962214</v>
       </c>
       <c r="I25">
         <v>0</v>
       </c>
       <c r="J25">
-        <v>0.06995768208665964</v>
+        <v>0.3498863016074409</v>
       </c>
       <c r="K25">
-        <v>0.9700798304409375</v>
+        <v>0.3737664339000943</v>
       </c>
       <c r="L25">
-        <v>0.1520350696425652</v>
+        <v>0.07081691533283241</v>
       </c>
       <c r="M25">
-        <v>0.2433462447674302</v>
+        <v>0.8982410382999149</v>
       </c>
       <c r="N25">
-        <v>1.165088644982314</v>
+        <v>0.1848374160750268</v>
       </c>
       <c r="O25">
-        <v>2.558903766070188</v>
+        <v>0.2252941546312641</v>
+      </c>
+      <c r="P25">
+        <v>0.9243867072461782</v>
+      </c>
+      <c r="Q25">
+        <v>1.519325953080312</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_7_42/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_7_42/res_line/pl_mw.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q25"/>
+  <dimension ref="A1:S25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:17">
+    <row r="1" spans="1:19">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -421,1277 +421,1427 @@
       <c r="Q1" s="1">
         <v>15</v>
       </c>
-    </row>
-    <row r="2" spans="1:17">
+      <c r="R1" s="1">
+        <v>16</v>
+      </c>
+      <c r="S1" s="1">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.8642092388095932</v>
+        <v>0.8358695368263795</v>
       </c>
       <c r="C2">
-        <v>0.1034917252082934</v>
+        <v>0.09637902970364109</v>
       </c>
       <c r="D2">
-        <v>0.1021979828218278</v>
+        <v>0.1037463071394882</v>
       </c>
       <c r="E2">
-        <v>0.05969160914152383</v>
+        <v>0.05820583178156902</v>
       </c>
       <c r="F2">
-        <v>0.6333856851657345</v>
+        <v>0.6030154234730318</v>
       </c>
       <c r="G2">
-        <v>0.3864822552295024</v>
+        <v>0.3476978348734434</v>
       </c>
       <c r="H2">
-        <v>0.006360179224644824</v>
+        <v>0.005349052405194121</v>
       </c>
       <c r="I2">
         <v>0</v>
       </c>
       <c r="J2">
-        <v>0.351109694830356</v>
+        <v>0.3581973001421801</v>
       </c>
       <c r="K2">
-        <v>0.3771157433333201</v>
+        <v>0.3453315622677806</v>
       </c>
       <c r="L2">
-        <v>0.06886039980246306</v>
+        <v>0.1639989304778631</v>
       </c>
       <c r="M2">
-        <v>0.7560591479193874</v>
+        <v>0.09979180764234918</v>
       </c>
       <c r="N2">
-        <v>0.1631889276972061</v>
+        <v>0.0660719235627365</v>
       </c>
       <c r="O2">
-        <v>0.1911487663397722</v>
+        <v>0.7593266076483189</v>
       </c>
       <c r="P2">
-        <v>0.9653946844882473</v>
+        <v>0.1761503092644645</v>
       </c>
       <c r="Q2">
-        <v>1.501022617077794</v>
-      </c>
-    </row>
-    <row r="3" spans="1:17">
+        <v>0.189388578785934</v>
+      </c>
+      <c r="R2">
+        <v>0.9380128497635276</v>
+      </c>
+      <c r="S2">
+        <v>1.414430655552039</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.7532826044034664</v>
+        <v>0.7312473050499477</v>
       </c>
       <c r="C3">
-        <v>0.09912334865963857</v>
+        <v>0.08953299584368324</v>
       </c>
       <c r="D3">
-        <v>0.0933210321937139</v>
+        <v>0.09478770099677547</v>
       </c>
       <c r="E3">
-        <v>0.05740613775478032</v>
+        <v>0.05614785403115619</v>
       </c>
       <c r="F3">
-        <v>0.6217443477437357</v>
+        <v>0.5932579504515942</v>
       </c>
       <c r="G3">
-        <v>0.3809917660032056</v>
+        <v>0.3449387206476828</v>
       </c>
       <c r="H3">
-        <v>0.008269733706288668</v>
+        <v>0.006984806099753021</v>
       </c>
       <c r="I3">
         <v>0</v>
       </c>
       <c r="J3">
-        <v>0.3526190497934891</v>
+        <v>0.3576497495441373</v>
       </c>
       <c r="K3">
-        <v>0.3802246769217064</v>
+        <v>0.3491858190604553</v>
       </c>
       <c r="L3">
-        <v>0.06748732441625016</v>
+        <v>0.168804356952414</v>
       </c>
       <c r="M3">
-        <v>0.6595397503887597</v>
+        <v>0.09939172397071516</v>
       </c>
       <c r="N3">
-        <v>0.1485128208852231</v>
+        <v>0.06484535896087174</v>
       </c>
       <c r="O3">
-        <v>0.1680197213382471</v>
+        <v>0.6627424606167125</v>
       </c>
       <c r="P3">
-        <v>0.9946662331786182</v>
+        <v>0.1605677469964277</v>
       </c>
       <c r="Q3">
-        <v>1.492276185101389</v>
-      </c>
-    </row>
-    <row r="4" spans="1:17">
+        <v>0.1665694868207126</v>
+      </c>
+      <c r="R3">
+        <v>0.9637472768638009</v>
+      </c>
+      <c r="S3">
+        <v>1.409707538029252</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.6851371438383183</v>
+        <v>0.6668089987099961</v>
       </c>
       <c r="C4">
-        <v>0.09642450115268986</v>
+        <v>0.08534742624249247</v>
       </c>
       <c r="D4">
-        <v>0.08789437589054927</v>
+        <v>0.08931643599780159</v>
       </c>
       <c r="E4">
-        <v>0.05600095058157883</v>
+        <v>0.05488072574477343</v>
       </c>
       <c r="F4">
-        <v>0.6152243589082573</v>
+        <v>0.5877911623971315</v>
       </c>
       <c r="G4">
-        <v>0.3781155838621828</v>
+        <v>0.3437361998816186</v>
       </c>
       <c r="H4">
-        <v>0.00961680100193809</v>
+        <v>0.008140879553340835</v>
       </c>
       <c r="I4">
         <v>0</v>
       </c>
       <c r="J4">
-        <v>0.3538693872373173</v>
+        <v>0.3574780191509035</v>
       </c>
       <c r="K4">
-        <v>0.3825313287081933</v>
+        <v>0.3518610557494171</v>
       </c>
       <c r="L4">
-        <v>0.06661974002836768</v>
+        <v>0.1719234586140566</v>
       </c>
       <c r="M4">
-        <v>0.6001722195543806</v>
+        <v>0.09971596867413091</v>
       </c>
       <c r="N4">
-        <v>0.1394948536388796</v>
+        <v>0.06406783323707987</v>
       </c>
       <c r="O4">
-        <v>0.1538181816732305</v>
+        <v>0.6033123364279618</v>
       </c>
       <c r="P4">
-        <v>1.013349610326042</v>
+        <v>0.1510234714273224</v>
       </c>
       <c r="Q4">
-        <v>1.488625523981469</v>
-      </c>
-    </row>
-    <row r="5" spans="1:17">
+        <v>0.1525455205334509</v>
+      </c>
+      <c r="R4">
+        <v>0.9802446024735598</v>
+      </c>
+      <c r="S4">
+        <v>1.408223874530307</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.657354747080376</v>
+        <v>0.6404971239745123</v>
       </c>
       <c r="C5">
-        <v>0.09532030403984493</v>
+        <v>0.08364598740639906</v>
       </c>
       <c r="D5">
-        <v>0.08568861990587351</v>
+        <v>0.08709392655829618</v>
       </c>
       <c r="E5">
-        <v>0.05542769272621584</v>
+        <v>0.05436334435272805</v>
       </c>
       <c r="F5">
-        <v>0.6127208996474565</v>
+        <v>0.5856914368195234</v>
       </c>
       <c r="G5">
-        <v>0.3770640158340868</v>
+        <v>0.3433655151169859</v>
       </c>
       <c r="H5">
-        <v>0.01020813437768387</v>
+        <v>0.008648832839099077</v>
       </c>
       <c r="I5">
         <v>0</v>
       </c>
       <c r="J5">
-        <v>0.3544585803398874</v>
+        <v>0.3574486119365687</v>
       </c>
       <c r="K5">
-        <v>0.3835690199265471</v>
+        <v>0.3530270107483382</v>
       </c>
       <c r="L5">
-        <v>0.06625985045312088</v>
+        <v>0.173236903039669</v>
       </c>
       <c r="M5">
-        <v>0.5759502512882904</v>
+        <v>0.09999032738863711</v>
       </c>
       <c r="N5">
-        <v>0.1358176898539298</v>
+        <v>0.06374468423568302</v>
       </c>
       <c r="O5">
-        <v>0.1480301578770806</v>
+        <v>0.5790597792738055</v>
       </c>
       <c r="P5">
-        <v>1.021139020691365</v>
+        <v>0.1471395077656297</v>
       </c>
       <c r="Q5">
-        <v>1.487558291744065</v>
-      </c>
-    </row>
-    <row r="6" spans="1:17">
+        <v>0.1468268039020408</v>
+      </c>
+      <c r="R5">
+        <v>0.9871399167087276</v>
+      </c>
+      <c r="S5">
+        <v>1.407965154323605</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.6527406439270749</v>
+        <v>0.6361248021254653</v>
       </c>
       <c r="C6">
-        <v>0.09513668167100064</v>
+        <v>0.08336371122490505</v>
       </c>
       <c r="D6">
-        <v>0.08532268743390148</v>
+        <v>0.08672529924548655</v>
       </c>
       <c r="E6">
-        <v>0.05533246106334033</v>
+        <v>0.05427736845668107</v>
       </c>
       <c r="F6">
-        <v>0.612314347226075</v>
+        <v>0.5853504028540897</v>
       </c>
       <c r="G6">
-        <v>0.3768965681683127</v>
+        <v>0.3433110497943446</v>
       </c>
       <c r="H6">
-        <v>0.01030884181663375</v>
+        <v>0.00873536579935684</v>
       </c>
       <c r="I6">
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0.3545611788224576</v>
+        <v>0.3574461571550032</v>
       </c>
       <c r="K6">
-        <v>0.3837471633523357</v>
+        <v>0.3532251401766082</v>
       </c>
       <c r="L6">
-        <v>0.0661997029102892</v>
+        <v>0.1734575596227792</v>
       </c>
       <c r="M6">
-        <v>0.5719263629558355</v>
+        <v>0.1000444441265378</v>
       </c>
       <c r="N6">
-        <v>0.1352069465837502</v>
+        <v>0.06369064035624206</v>
       </c>
       <c r="O6">
-        <v>0.147068993304643</v>
+        <v>0.5750305236528135</v>
       </c>
       <c r="P6">
-        <v>1.022442980820433</v>
+        <v>0.1464948910204384</v>
       </c>
       <c r="Q6">
-        <v>1.487406129949832</v>
-      </c>
-    </row>
-    <row r="7" spans="1:17">
+        <v>0.1458769674059468</v>
+      </c>
+      <c r="R6">
+        <v>0.9882952249591881</v>
+      </c>
+      <c r="S6">
+        <v>1.407942790894637</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.6847625160866357</v>
+        <v>0.6661232576819316</v>
       </c>
       <c r="C7">
-        <v>0.09640962762495775</v>
+        <v>0.08520108364788825</v>
       </c>
       <c r="D7">
-        <v>0.08786460585417899</v>
+        <v>0.08941124802954903</v>
       </c>
       <c r="E7">
-        <v>0.05599322218818692</v>
+        <v>0.05489287616705241</v>
       </c>
       <c r="F7">
-        <v>0.6151899805901593</v>
+        <v>0.5871691797968808</v>
       </c>
       <c r="G7">
-        <v>0.3781009192951714</v>
+        <v>0.3460031047515884</v>
       </c>
       <c r="H7">
-        <v>0.009624606251866272</v>
+        <v>0.008153290764563184</v>
       </c>
       <c r="I7">
         <v>0</v>
       </c>
       <c r="J7">
-        <v>0.3538770129164135</v>
+        <v>0.354205790765036</v>
       </c>
       <c r="K7">
-        <v>0.3825449307325215</v>
+        <v>0.3515927644584593</v>
       </c>
       <c r="L7">
-        <v>0.06661491234211425</v>
+        <v>0.1717944775913445</v>
       </c>
       <c r="M7">
-        <v>0.5998456757637882</v>
+        <v>0.09965113255932323</v>
       </c>
       <c r="N7">
-        <v>0.1394452720363404</v>
+        <v>0.06405431242090565</v>
       </c>
       <c r="O7">
-        <v>0.1537401264548386</v>
+        <v>0.6024053727885814</v>
       </c>
       <c r="P7">
-        <v>1.013453953031794</v>
+        <v>0.1509422746068623</v>
       </c>
       <c r="Q7">
-        <v>1.488609444082556</v>
-      </c>
-    </row>
-    <row r="8" spans="1:17">
+        <v>0.1524080977009028</v>
+      </c>
+      <c r="R7">
+        <v>0.9803856841091747</v>
+      </c>
+      <c r="S7">
+        <v>1.406487100215742</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.8259670154367598</v>
+        <v>0.7987255267238709</v>
       </c>
       <c r="C8">
-        <v>0.1019888327812239</v>
+        <v>0.09359412738653106</v>
       </c>
       <c r="D8">
-        <v>0.09913205194582986</v>
+        <v>0.1010701023313487</v>
       </c>
       <c r="E8">
-        <v>0.05890387666798702</v>
+        <v>0.05756199061857892</v>
       </c>
       <c r="F8">
-        <v>0.6292387513240456</v>
+        <v>0.5975801934082767</v>
       </c>
       <c r="G8">
-        <v>0.3844839604511208</v>
+        <v>0.3542459890663778</v>
       </c>
       <c r="H8">
-        <v>0.006981436084067261</v>
+        <v>0.005895701868406766</v>
       </c>
       <c r="I8">
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0.3515619181766851</v>
+        <v>0.3473773924119925</v>
       </c>
       <c r="K8">
-        <v>0.3781037374469918</v>
+        <v>0.3456689559500603</v>
       </c>
       <c r="L8">
-        <v>0.06839194126874037</v>
+        <v>0.1651877413278875</v>
       </c>
       <c r="M8">
-        <v>0.7227989975075957</v>
+        <v>0.09926749578508698</v>
       </c>
       <c r="N8">
-        <v>0.1581296609892888</v>
+        <v>0.06562564845597407</v>
       </c>
       <c r="O8">
-        <v>0.183173458296622</v>
+        <v>0.7241028828757692</v>
       </c>
       <c r="P8">
-        <v>0.9753382809878435</v>
+        <v>0.1706771147001547</v>
       </c>
       <c r="Q8">
-        <v>1.497642574267147</v>
-      </c>
-    </row>
-    <row r="9" spans="1:17">
+        <v>0.181320292567591</v>
+      </c>
+      <c r="R8">
+        <v>0.9469765138762121</v>
+      </c>
+      <c r="S8">
+        <v>1.40679365329224</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.102764012674413</v>
+        <v>1.058506661780456</v>
       </c>
       <c r="C9">
-        <v>0.1128081618950603</v>
+        <v>0.1106553800027541</v>
       </c>
       <c r="D9">
-        <v>0.121433813730448</v>
+        <v>0.123726902415072</v>
       </c>
       <c r="E9">
-        <v>0.06460414533574976</v>
+        <v>0.06270464382610186</v>
       </c>
       <c r="F9">
-        <v>0.6619771782038555</v>
+        <v>0.6244929514068431</v>
       </c>
       <c r="G9">
-        <v>0.4011155615997239</v>
+        <v>0.3661272773380446</v>
       </c>
       <c r="H9">
-        <v>0.003253218460881779</v>
+        <v>0.002711092566257012</v>
       </c>
       <c r="I9">
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0.3496693221566645</v>
+        <v>0.3468672032790465</v>
       </c>
       <c r="K9">
-        <v>0.3726583292840751</v>
+        <v>0.3376204115494801</v>
       </c>
       <c r="L9">
-        <v>0.07169058104739445</v>
+        <v>0.15410684050266</v>
       </c>
       <c r="M9">
-        <v>0.9632393355387308</v>
+        <v>0.1033327237125992</v>
       </c>
       <c r="N9">
-        <v>0.1947443340870407</v>
+        <v>0.06855417385223106</v>
       </c>
       <c r="O9">
-        <v>0.2409280783844743</v>
+        <v>0.9639726313233723</v>
       </c>
       <c r="P9">
-        <v>0.9063639474506804</v>
+        <v>0.2096933900657874</v>
       </c>
       <c r="Q9">
-        <v>1.529565079660912</v>
-      </c>
-    </row>
-    <row r="10" spans="1:17">
+        <v>0.2381637166619726</v>
+      </c>
+      <c r="R9">
+        <v>0.8869316638414055</v>
+      </c>
+      <c r="S9">
+        <v>1.425409101120508</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.301280467077476</v>
+        <v>1.242343986652742</v>
       </c>
       <c r="C10">
-        <v>0.1215301578933392</v>
+        <v>0.1233372592076165</v>
       </c>
       <c r="D10">
-        <v>0.1359784384359841</v>
+        <v>0.1392727568970145</v>
       </c>
       <c r="E10">
-        <v>0.06711137046504057</v>
+        <v>0.06497331838978049</v>
       </c>
       <c r="F10">
-        <v>0.6830089773725021</v>
+        <v>0.6378525394504564</v>
       </c>
       <c r="G10">
-        <v>0.4120047572392238</v>
+        <v>0.3876473368138065</v>
       </c>
       <c r="H10">
-        <v>0.001768898373398109</v>
+        <v>0.001495791510178535</v>
       </c>
       <c r="I10">
         <v>0</v>
       </c>
       <c r="J10">
-        <v>0.3479477201831855</v>
+        <v>0.3284156884814493</v>
       </c>
       <c r="K10">
-        <v>0.3678323271976147</v>
+        <v>0.3293238926732975</v>
       </c>
       <c r="L10">
-        <v>0.07311886669086309</v>
+        <v>0.1453296407040501</v>
       </c>
       <c r="M10">
-        <v>1.138534163152627</v>
+        <v>0.1075667693587938</v>
       </c>
       <c r="N10">
-        <v>0.2148120835814069</v>
+        <v>0.06983249271601899</v>
       </c>
       <c r="O10">
-        <v>0.2794005019064087</v>
+        <v>1.135152796773298</v>
       </c>
       <c r="P10">
-        <v>0.8602494943857728</v>
+        <v>0.2311497501624302</v>
       </c>
       <c r="Q10">
-        <v>1.549467676474578</v>
-      </c>
-    </row>
-    <row r="11" spans="1:17">
+        <v>0.2755813836651484</v>
+      </c>
+      <c r="R10">
+        <v>0.8483990765959817</v>
+      </c>
+      <c r="S10">
+        <v>1.425531593803939</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.347096687495053</v>
+        <v>1.284177555365062</v>
       </c>
       <c r="C11">
-        <v>0.1332706796878682</v>
+        <v>0.1351436564063135</v>
       </c>
       <c r="D11">
-        <v>0.1256256521355965</v>
+        <v>0.1302386413961756</v>
       </c>
       <c r="E11">
-        <v>0.05547358180621842</v>
+        <v>0.05386004144941303</v>
       </c>
       <c r="F11">
-        <v>0.6378444219027628</v>
+        <v>0.5887504490698348</v>
       </c>
       <c r="G11">
-        <v>0.3824578069791684</v>
+        <v>0.3892248810720602</v>
       </c>
       <c r="H11">
-        <v>0.02031216454430762</v>
+        <v>0.02008545362956937</v>
       </c>
       <c r="I11">
         <v>0</v>
       </c>
       <c r="J11">
-        <v>0.329861655114108</v>
+        <v>0.2831365703695425</v>
       </c>
       <c r="K11">
-        <v>0.3410087627329261</v>
+        <v>0.3026745248049139</v>
       </c>
       <c r="L11">
-        <v>0.0701922560222914</v>
+        <v>0.1336560190474447</v>
       </c>
       <c r="M11">
-        <v>1.207786329239354</v>
+        <v>0.1003379848740948</v>
       </c>
       <c r="N11">
-        <v>0.1686882119822357</v>
+        <v>0.06814572252307105</v>
       </c>
       <c r="O11">
-        <v>0.2622797126634957</v>
+        <v>1.196273060104204</v>
       </c>
       <c r="P11">
-        <v>0.8505322211333279</v>
+        <v>0.1824711402411765</v>
       </c>
       <c r="Q11">
-        <v>1.44911576733071</v>
-      </c>
-    </row>
-    <row r="12" spans="1:17">
+        <v>0.2578813269901978</v>
+      </c>
+      <c r="R11">
+        <v>0.8476653983175702</v>
+      </c>
+      <c r="S11">
+        <v>1.313549976119319</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.342908111518057</v>
+        <v>1.281154736437003</v>
       </c>
       <c r="C12">
-        <v>0.1420980081722121</v>
+        <v>0.1434022466131779</v>
       </c>
       <c r="D12">
-        <v>0.1141693835296564</v>
+        <v>0.1191317373621672</v>
       </c>
       <c r="E12">
-        <v>0.04762089331550623</v>
+        <v>0.04632965508871223</v>
       </c>
       <c r="F12">
-        <v>0.5958514025959474</v>
+        <v>0.5475089286319061</v>
       </c>
       <c r="G12">
-        <v>0.3555685501036123</v>
+        <v>0.3765126679027375</v>
       </c>
       <c r="H12">
-        <v>0.05909301487112373</v>
+        <v>0.05887015696782782</v>
       </c>
       <c r="I12">
         <v>0</v>
       </c>
       <c r="J12">
-        <v>0.3149953801498455</v>
+        <v>0.2620174497073009</v>
       </c>
       <c r="K12">
-        <v>0.3199929664822392</v>
+        <v>0.2836948786771032</v>
       </c>
       <c r="L12">
-        <v>0.07309901015680431</v>
+        <v>0.1265423105588361</v>
       </c>
       <c r="M12">
-        <v>1.228968941371335</v>
+        <v>0.09363074802174154</v>
       </c>
       <c r="N12">
-        <v>0.1312671942483306</v>
+        <v>0.07204989969128484</v>
       </c>
       <c r="O12">
-        <v>0.240228730968326</v>
+        <v>1.213595310562084</v>
       </c>
       <c r="P12">
-        <v>0.8555275594249565</v>
+        <v>0.1428541976313653</v>
       </c>
       <c r="Q12">
-        <v>1.361032141327613</v>
-      </c>
-    </row>
-    <row r="13" spans="1:17">
+        <v>0.2358272968169892</v>
+      </c>
+      <c r="R12">
+        <v>0.8584933624790878</v>
+      </c>
+      <c r="S12">
+        <v>1.226958398163546</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.299991450050385</v>
+        <v>1.244315546707071</v>
       </c>
       <c r="C13">
-        <v>0.1490738149057904</v>
+        <v>0.1497732365638598</v>
       </c>
       <c r="D13">
-        <v>0.1012583315433417</v>
+        <v>0.1056319462126183</v>
       </c>
       <c r="E13">
-        <v>0.04220429010088944</v>
+        <v>0.04113385387504698</v>
       </c>
       <c r="F13">
-        <v>0.5537551820804083</v>
+        <v>0.5106420313127913</v>
       </c>
       <c r="G13">
-        <v>0.329038156503465</v>
+        <v>0.346394211608704</v>
       </c>
       <c r="H13">
-        <v>0.1150774612560639</v>
+        <v>0.1148193763266079</v>
       </c>
       <c r="I13">
         <v>0</v>
       </c>
       <c r="J13">
-        <v>0.3016503454218977</v>
+        <v>0.2570846531665083</v>
       </c>
       <c r="K13">
-        <v>0.302094432683699</v>
+        <v>0.2696028404183686</v>
       </c>
       <c r="L13">
-        <v>0.08046973363744314</v>
+        <v>0.1220735389078307</v>
       </c>
       <c r="M13">
-        <v>1.214176637438925</v>
+        <v>0.08729877298092248</v>
       </c>
       <c r="N13">
-        <v>0.09851649509807459</v>
+        <v>0.08025887630664741</v>
       </c>
       <c r="O13">
-        <v>0.2132584772120438</v>
+        <v>1.199697460370089</v>
       </c>
       <c r="P13">
-        <v>0.8712915702467825</v>
+        <v>0.1081225531590064</v>
       </c>
       <c r="Q13">
-        <v>1.276813705513433</v>
-      </c>
-    </row>
-    <row r="14" spans="1:17">
+        <v>0.209393791352408</v>
+      </c>
+      <c r="R13">
+        <v>0.8763714188119422</v>
+      </c>
+      <c r="S13">
+        <v>1.156801537394543</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.252569520474538</v>
+        <v>1.20325217374247</v>
       </c>
       <c r="C14">
-        <v>0.1531414125801689</v>
+        <v>0.153419098823349</v>
       </c>
       <c r="D14">
-        <v>0.09169644724711645</v>
+        <v>0.09531712946197501</v>
       </c>
       <c r="E14">
-        <v>0.03985751095335965</v>
+        <v>0.03892954744503963</v>
       </c>
       <c r="F14">
-        <v>0.524579477620037</v>
+        <v>0.4867475115912399</v>
       </c>
       <c r="G14">
-        <v>0.3108422230326653</v>
+        <v>0.3189934076625747</v>
       </c>
       <c r="H14">
-        <v>0.1646423203497562</v>
+        <v>0.1643393572282861</v>
       </c>
       <c r="I14">
         <v>0</v>
       </c>
       <c r="J14">
-        <v>0.2930809701926833</v>
+        <v>0.25946207261266</v>
       </c>
       <c r="K14">
-        <v>0.291149548313296</v>
+        <v>0.2618652775103971</v>
       </c>
       <c r="L14">
-        <v>0.08828310024557595</v>
+        <v>0.1199647952326686</v>
       </c>
       <c r="M14">
-        <v>1.187554215378896</v>
+        <v>0.08315849507731166</v>
       </c>
       <c r="N14">
-        <v>0.07866108509457348</v>
+        <v>0.0885510752095513</v>
       </c>
       <c r="O14">
-        <v>0.1924139016353976</v>
+        <v>1.17577208961265</v>
       </c>
       <c r="P14">
-        <v>0.8873475529107111</v>
+        <v>0.08700603903110604</v>
       </c>
       <c r="Q14">
-        <v>1.220236081511871</v>
-      </c>
-    </row>
-    <row r="15" spans="1:17">
+        <v>0.1891254292742346</v>
+      </c>
+      <c r="R14">
+        <v>0.891773065026797</v>
+      </c>
+      <c r="S14">
+        <v>1.114621881310526</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.232951056442573</v>
+        <v>1.186107056358992</v>
       </c>
       <c r="C15">
-        <v>0.153616101449856</v>
+        <v>0.1538026296630335</v>
       </c>
       <c r="D15">
-        <v>0.08903315032595316</v>
+        <v>0.09233003394408712</v>
       </c>
       <c r="E15">
-        <v>0.03947974846400615</v>
+        <v>0.03859171863604072</v>
       </c>
       <c r="F15">
-        <v>0.5174163766953299</v>
+        <v>0.4815680537592471</v>
       </c>
       <c r="G15">
-        <v>0.3064613069255628</v>
+        <v>0.3097099713796183</v>
       </c>
       <c r="H15">
-        <v>0.1772585167658605</v>
+        <v>0.1769324758373472</v>
       </c>
       <c r="I15">
         <v>0</v>
       </c>
       <c r="J15">
-        <v>0.2913198369707217</v>
+        <v>0.2626477303733772</v>
       </c>
       <c r="K15">
-        <v>0.2890749746549979</v>
+        <v>0.260812934400116</v>
       </c>
       <c r="L15">
-        <v>0.09035985399679092</v>
+        <v>0.1198574221346149</v>
       </c>
       <c r="M15">
-        <v>1.173440939540797</v>
+        <v>0.08223953160992181</v>
       </c>
       <c r="N15">
-        <v>0.07411829340647103</v>
+        <v>0.09071730093291919</v>
       </c>
       <c r="O15">
-        <v>0.1862696940213588</v>
+        <v>1.163197378819149</v>
       </c>
       <c r="P15">
-        <v>0.8929814667710048</v>
+        <v>0.08218044077786857</v>
       </c>
       <c r="Q15">
-        <v>1.20722839679857</v>
-      </c>
-    </row>
-    <row r="16" spans="1:17">
+        <v>0.1832086214543516</v>
+      </c>
+      <c r="R15">
+        <v>0.8963458636522006</v>
+      </c>
+      <c r="S15">
+        <v>1.107069145743537</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.157049592018353</v>
+        <v>1.118267564686306</v>
       </c>
       <c r="C16">
-        <v>0.1481182400753482</v>
+        <v>0.1481863487301638</v>
       </c>
       <c r="D16">
-        <v>0.08569954607164476</v>
+        <v>0.08780081398624162</v>
       </c>
       <c r="E16">
-        <v>0.03957365571651139</v>
+        <v>0.03872611114364377</v>
       </c>
       <c r="F16">
-        <v>0.5169418228362588</v>
+        <v>0.487171186992839</v>
       </c>
       <c r="G16">
-        <v>0.307010774070136</v>
+        <v>0.2884903843162476</v>
       </c>
       <c r="H16">
-        <v>0.165139301882391</v>
+        <v>0.1646846759601033</v>
       </c>
       <c r="I16">
         <v>0</v>
       </c>
       <c r="J16">
-        <v>0.2945815713780249</v>
+        <v>0.287478058269528</v>
       </c>
       <c r="K16">
-        <v>0.2945261027540234</v>
+        <v>0.2684336522157107</v>
       </c>
       <c r="L16">
-        <v>0.08786578974614301</v>
+        <v>0.1237931246858146</v>
       </c>
       <c r="M16">
-        <v>1.101022931149572</v>
+        <v>0.08289477674544443</v>
       </c>
       <c r="N16">
-        <v>0.07300668648612785</v>
+        <v>0.08804920228814694</v>
       </c>
       <c r="O16">
-        <v>0.1759235027773478</v>
+        <v>1.098007321103694</v>
       </c>
       <c r="P16">
-        <v>0.9071687630174239</v>
+        <v>0.08118481991569482</v>
       </c>
       <c r="Q16">
-        <v>1.215047739518127</v>
-      </c>
-    </row>
-    <row r="17" spans="1:17">
+        <v>0.1736255909634181</v>
+      </c>
+      <c r="R16">
+        <v>0.9032774463481275</v>
+      </c>
+      <c r="S16">
+        <v>1.131783938211271</v>
+      </c>
+    </row>
+    <row r="17" spans="1:19">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.124047127409654</v>
+        <v>1.087542604646956</v>
       </c>
       <c r="C17">
-        <v>0.1417482887596719</v>
+        <v>0.1416413180951537</v>
       </c>
       <c r="D17">
-        <v>0.08813949027839385</v>
+        <v>0.08982219392009938</v>
       </c>
       <c r="E17">
-        <v>0.04066267060674233</v>
+        <v>0.0397344968311224</v>
       </c>
       <c r="F17">
-        <v>0.532061884564115</v>
+        <v>0.5037362428986967</v>
       </c>
       <c r="G17">
-        <v>0.317124944235033</v>
+        <v>0.2891878067306877</v>
       </c>
       <c r="H17">
-        <v>0.1277341366478169</v>
+        <v>0.1272031270995768</v>
       </c>
       <c r="I17">
         <v>0</v>
       </c>
       <c r="J17">
-        <v>0.3016826136269728</v>
+        <v>0.3043789937225441</v>
       </c>
       <c r="K17">
-        <v>0.3045392680280621</v>
+        <v>0.2783289814526757</v>
       </c>
       <c r="L17">
-        <v>0.08138605503111052</v>
+        <v>0.1281814239164127</v>
       </c>
       <c r="M17">
-        <v>1.059732787443266</v>
+        <v>0.08540135989717967</v>
       </c>
       <c r="N17">
-        <v>0.08203473435841246</v>
+        <v>0.08120682741262542</v>
       </c>
       <c r="O17">
-        <v>0.1788883122548199</v>
+        <v>1.059804272525923</v>
       </c>
       <c r="P17">
-        <v>0.9097539626941185</v>
+        <v>0.09092245714086644</v>
       </c>
       <c r="Q17">
-        <v>1.251255489161153</v>
-      </c>
-    </row>
-    <row r="18" spans="1:17">
+        <v>0.1768213086026549</v>
+      </c>
+      <c r="R17">
+        <v>0.9017423475639177</v>
+      </c>
+      <c r="S17">
+        <v>1.172077763807266</v>
+      </c>
+    </row>
+    <row r="18" spans="1:19">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.123831825576332</v>
+        <v>1.085770106546192</v>
       </c>
       <c r="C18">
-        <v>0.1342172765777576</v>
+        <v>0.1341569800019471</v>
       </c>
       <c r="D18">
-        <v>0.09606110979651561</v>
+        <v>0.09768452526788707</v>
       </c>
       <c r="E18">
-        <v>0.04397307352216906</v>
+        <v>0.04282233549368275</v>
       </c>
       <c r="F18">
-        <v>0.5627441382140219</v>
+        <v>0.5331567139728079</v>
       </c>
       <c r="G18">
-        <v>0.3368644176081617</v>
+        <v>0.3034660633663364</v>
       </c>
       <c r="H18">
-        <v>0.07500304780415235</v>
+        <v>0.07445004523922449</v>
       </c>
       <c r="I18">
         <v>0</v>
       </c>
       <c r="J18">
-        <v>0.3129489663001976</v>
+        <v>0.3193550825824332</v>
       </c>
       <c r="K18">
-        <v>0.3199648089077129</v>
+        <v>0.2920953038946017</v>
       </c>
       <c r="L18">
-        <v>0.0734398677436392</v>
+        <v>0.1338018800351222</v>
       </c>
       <c r="M18">
-        <v>1.040338812206215</v>
+        <v>0.08990488480112901</v>
       </c>
       <c r="N18">
-        <v>0.103787939254552</v>
+        <v>0.07265655790037862</v>
       </c>
       <c r="O18">
-        <v>0.1940340531948337</v>
+        <v>1.041736485659897</v>
       </c>
       <c r="P18">
-        <v>0.9041392153812247</v>
+        <v>0.114081637325242</v>
       </c>
       <c r="Q18">
-        <v>1.316644336844305</v>
-      </c>
-    </row>
-    <row r="19" spans="1:17">
+        <v>0.1918940539600413</v>
+      </c>
+      <c r="R18">
+        <v>0.8933374849070432</v>
+      </c>
+      <c r="S18">
+        <v>1.234217054721853</v>
+      </c>
+    </row>
+    <row r="19" spans="1:19">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.149818056791645</v>
+        <v>1.107554698354619</v>
       </c>
       <c r="C19">
-        <v>0.1267122820180262</v>
+        <v>0.1269188433076636</v>
       </c>
       <c r="D19">
-        <v>0.1082503256123957</v>
+        <v>0.1100236426347365</v>
       </c>
       <c r="E19">
-        <v>0.0506887200223165</v>
+        <v>0.04918923818521659</v>
       </c>
       <c r="F19">
-        <v>0.6047266065459596</v>
+        <v>0.5720842040304603</v>
       </c>
       <c r="G19">
-        <v>0.3635516859766952</v>
+        <v>0.3263472298852292</v>
       </c>
       <c r="H19">
-        <v>0.02947174194814295</v>
+        <v>0.02895622056774272</v>
       </c>
       <c r="I19">
         <v>0</v>
       </c>
       <c r="J19">
-        <v>0.3269700499134984</v>
+        <v>0.3335463049860223</v>
       </c>
       <c r="K19">
-        <v>0.3393101309762905</v>
+        <v>0.3087029289799297</v>
       </c>
       <c r="L19">
-        <v>0.06882416675956016</v>
+        <v>0.1402457816777218</v>
       </c>
       <c r="M19">
-        <v>1.039847397381493</v>
+        <v>0.09594555812367567</v>
       </c>
       <c r="N19">
-        <v>0.1387864798397018</v>
+        <v>0.0671898208996069</v>
       </c>
       <c r="O19">
-        <v>0.2186313660399719</v>
+        <v>1.041642681232929</v>
       </c>
       <c r="P19">
-        <v>0.8944576893738976</v>
+        <v>0.1510992839845571</v>
       </c>
       <c r="Q19">
-        <v>1.40257977598128</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17">
+        <v>0.2162127288485109</v>
+      </c>
+      <c r="R19">
+        <v>0.8814845512453466</v>
+      </c>
+      <c r="S19">
+        <v>1.31213996139725</v>
+      </c>
+    </row>
+    <row r="20" spans="1:19">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.248932280626434</v>
+        <v>1.195173478710387</v>
       </c>
       <c r="C20">
-        <v>0.1192740496728959</v>
+        <v>0.1205121365750941</v>
       </c>
       <c r="D20">
-        <v>0.1320674485885718</v>
+        <v>0.1346321895698708</v>
       </c>
       <c r="E20">
-        <v>0.06637978848814718</v>
+        <v>0.06423456465526911</v>
       </c>
       <c r="F20">
-        <v>0.6769696584333715</v>
+        <v>0.6359778901730735</v>
       </c>
       <c r="G20">
-        <v>0.4087737468843287</v>
+        <v>0.3731858289783077</v>
       </c>
       <c r="H20">
-        <v>0.002079118396403956</v>
+        <v>0.001737594058573766</v>
       </c>
       <c r="I20">
         <v>0</v>
       </c>
       <c r="J20">
-        <v>0.3481904820331536</v>
+        <v>0.3435916008405542</v>
       </c>
       <c r="K20">
-        <v>0.3688207751292083</v>
+        <v>0.3322328083612334</v>
       </c>
       <c r="L20">
-        <v>0.0727043113219219</v>
+        <v>0.1478608559267798</v>
       </c>
       <c r="M20">
-        <v>1.092463850139694</v>
+        <v>0.1066196732004911</v>
       </c>
       <c r="N20">
-        <v>0.2092554961379065</v>
+        <v>0.06948751363843275</v>
       </c>
       <c r="O20">
-        <v>0.2691290910949675</v>
+        <v>1.092342951232297</v>
       </c>
       <c r="P20">
-        <v>0.8721049149731464</v>
+        <v>0.2253086886113991</v>
       </c>
       <c r="Q20">
-        <v>1.543017380871049</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17">
+        <v>0.2658188983552527</v>
+      </c>
+      <c r="R20">
+        <v>0.8578201438998541</v>
+      </c>
+      <c r="S20">
+        <v>1.430497607153953</v>
+      </c>
+    </row>
+    <row r="21" spans="1:19">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.409221707756245</v>
+        <v>1.336203977962214</v>
       </c>
       <c r="C21">
-        <v>0.1246723168160528</v>
+        <v>0.1265083871770969</v>
       </c>
       <c r="D21">
-        <v>0.1463621481141359</v>
+        <v>0.1522826657889595</v>
       </c>
       <c r="E21">
-        <v>0.07092035571363731</v>
+        <v>0.06890668863442073</v>
       </c>
       <c r="F21">
-        <v>0.7043225111696785</v>
+        <v>0.6452099181512523</v>
       </c>
       <c r="G21">
-        <v>0.4244455592258163</v>
+        <v>0.4441824884766845</v>
       </c>
       <c r="H21">
-        <v>0.0008867093481293997</v>
+        <v>0.000741792617201753</v>
       </c>
       <c r="I21">
         <v>0</v>
       </c>
       <c r="J21">
-        <v>0.3506396008314141</v>
+        <v>0.2843428796462035</v>
       </c>
       <c r="K21">
-        <v>0.3704397819198526</v>
+        <v>0.3251805647239756</v>
       </c>
       <c r="L21">
-        <v>0.07516267571237556</v>
+        <v>0.1410874867146923</v>
       </c>
       <c r="M21">
-        <v>1.228821631946914</v>
+        <v>0.1101558257492776</v>
       </c>
       <c r="N21">
-        <v>0.2352819268675006</v>
+        <v>0.07145542766969815</v>
       </c>
       <c r="O21">
-        <v>0.304932107941795</v>
+        <v>1.21396372177216</v>
       </c>
       <c r="P21">
-        <v>0.8366615699969593</v>
+        <v>0.2524427306258303</v>
       </c>
       <c r="Q21">
-        <v>1.581688864584635</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17">
+        <v>0.2994886800238845</v>
+      </c>
+      <c r="R21">
+        <v>0.8301110986217637</v>
+      </c>
+      <c r="S21">
+        <v>1.418923169690999</v>
+      </c>
+    </row>
+    <row r="22" spans="1:19">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.511541957807765</v>
+        <v>1.425448196614781</v>
       </c>
       <c r="C22">
-        <v>0.128615997309474</v>
+        <v>0.1306536089442005</v>
       </c>
       <c r="D22">
-        <v>0.1547276221710945</v>
+        <v>0.1631224746704589</v>
       </c>
       <c r="E22">
-        <v>0.0730321861747214</v>
+        <v>0.07119391390957297</v>
       </c>
       <c r="F22">
-        <v>0.7196248024231195</v>
+        <v>0.6478216370500647</v>
       </c>
       <c r="G22">
-        <v>0.4331885690469761</v>
+        <v>0.4974238306640046</v>
       </c>
       <c r="H22">
-        <v>0.0004424036723422731</v>
+        <v>0.00037763123600143</v>
       </c>
       <c r="I22">
         <v>0</v>
       </c>
       <c r="J22">
-        <v>0.3515423165281675</v>
+        <v>0.2515635687682085</v>
       </c>
       <c r="K22">
-        <v>0.3704239252517105</v>
+        <v>0.3192247329443312</v>
       </c>
       <c r="L22">
-        <v>0.07629405902033159</v>
+        <v>0.1363710131535214</v>
       </c>
       <c r="M22">
-        <v>1.317385999864911</v>
+        <v>0.1121735179245178</v>
       </c>
       <c r="N22">
-        <v>0.2488185712122259</v>
+        <v>0.07235406339200612</v>
       </c>
       <c r="O22">
-        <v>0.3263119844415456</v>
+        <v>1.291711245282471</v>
       </c>
       <c r="P22">
-        <v>0.814649380961658</v>
+        <v>0.2665036330199655</v>
       </c>
       <c r="Q22">
-        <v>1.602314814261803</v>
-      </c>
-    </row>
-    <row r="23" spans="1:17">
+        <v>0.3193588339107194</v>
+      </c>
+      <c r="R22">
+        <v>0.8139196758702205</v>
+      </c>
+      <c r="S22">
+        <v>1.40435318854766</v>
+      </c>
+    </row>
+    <row r="23" spans="1:19">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.456917577305575</v>
+        <v>1.378756925360051</v>
       </c>
       <c r="C23">
-        <v>0.1265115097079601</v>
+        <v>0.1287854703327724</v>
       </c>
       <c r="D23">
-        <v>0.15025931640848</v>
+        <v>0.1569642684310253</v>
       </c>
       <c r="E23">
-        <v>0.07190454558516102</v>
+        <v>0.06991004305405824</v>
       </c>
       <c r="F23">
-        <v>0.7113890935322615</v>
+        <v>0.6479456040551668</v>
       </c>
       <c r="G23">
-        <v>0.4284661594976171</v>
+        <v>0.4613306025126747</v>
       </c>
       <c r="H23">
-        <v>0.0006595860932057107</v>
+        <v>0.000553666517029483</v>
       </c>
       <c r="I23">
         <v>0</v>
       </c>
       <c r="J23">
-        <v>0.3510275157193661</v>
+        <v>0.2732235811107131</v>
       </c>
       <c r="K23">
-        <v>0.3703910587756987</v>
+        <v>0.3230853080694693</v>
       </c>
       <c r="L23">
-        <v>0.07569147311361846</v>
+        <v>0.139093927097532</v>
       </c>
       <c r="M23">
-        <v>1.270111178810168</v>
+        <v>0.111366508294001</v>
       </c>
       <c r="N23">
-        <v>0.24159177655973</v>
+        <v>0.07188981566519548</v>
       </c>
       <c r="O23">
-        <v>0.3148976484842905</v>
+        <v>1.25184631682518</v>
       </c>
       <c r="P23">
-        <v>0.8263290865981219</v>
+        <v>0.2590704223590308</v>
       </c>
       <c r="Q23">
-        <v>1.591118865103766</v>
-      </c>
-    </row>
-    <row r="24" spans="1:17">
+        <v>0.3089247374524078</v>
+      </c>
+      <c r="R23">
+        <v>0.8220811722861434</v>
+      </c>
+      <c r="S23">
+        <v>1.416484672151086</v>
+      </c>
+    </row>
+    <row r="24" spans="1:19">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.250315305255725</v>
+        <v>1.196235925407251</v>
       </c>
       <c r="C24">
-        <v>0.1185318459216873</v>
+        <v>0.1197503152549473</v>
       </c>
       <c r="D24">
-        <v>0.1334101911250514</v>
+        <v>0.1359743862855538</v>
       </c>
       <c r="E24">
-        <v>0.06764386201698613</v>
+        <v>0.06545132860407321</v>
       </c>
       <c r="F24">
-        <v>0.6816687434918904</v>
+        <v>0.6404170273162606</v>
       </c>
       <c r="G24">
-        <v>0.4117808436060528</v>
+        <v>0.375459994355964</v>
       </c>
       <c r="H24">
-        <v>0.001908793619815996</v>
+        <v>0.001572097861486155</v>
       </c>
       <c r="I24">
         <v>0</v>
       </c>
       <c r="J24">
-        <v>0.3497888622158598</v>
+        <v>0.3455945257679645</v>
       </c>
       <c r="K24">
-        <v>0.3711558882258856</v>
+        <v>0.334282977376219</v>
       </c>
       <c r="L24">
-        <v>0.07338031282544932</v>
+        <v>0.1486914270958586</v>
       </c>
       <c r="M24">
-        <v>1.091177261066264</v>
+        <v>0.1073178321809465</v>
       </c>
       <c r="N24">
-        <v>0.214261351047881</v>
+        <v>0.07004244966777673</v>
       </c>
       <c r="O24">
-        <v>0.2717379392815502</v>
+        <v>1.091185177427036</v>
       </c>
       <c r="P24">
-        <v>0.8720477407637119</v>
+        <v>0.2305674371158233</v>
       </c>
       <c r="Q24">
-        <v>1.552736888105031</v>
-      </c>
-    </row>
-    <row r="25" spans="1:17">
+        <v>0.2684065055440712</v>
+      </c>
+      <c r="R24">
+        <v>0.8573712270323561</v>
+      </c>
+      <c r="S24">
+        <v>1.439553759261401</v>
+      </c>
+    </row>
+    <row r="25" spans="1:19">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.027865711769692</v>
+        <v>0.9888453465112548</v>
       </c>
       <c r="C25">
-        <v>0.109892616700364</v>
+        <v>0.1062063487720337</v>
       </c>
       <c r="D25">
-        <v>0.1153758250724906</v>
+        <v>0.1173865726440368</v>
       </c>
       <c r="E25">
-        <v>0.06306174303776224</v>
+        <v>0.06128608043092676</v>
       </c>
       <c r="F25">
-        <v>0.6525347329812092</v>
+        <v>0.6175582702847464</v>
       </c>
       <c r="G25">
-        <v>0.3961485487116718</v>
+        <v>0.3591569933194734</v>
       </c>
       <c r="H25">
-        <v>0.0040960046962214</v>
+        <v>0.003424290959724352</v>
       </c>
       <c r="I25">
         <v>0</v>
       </c>
       <c r="J25">
-        <v>0.3498863016074409</v>
+        <v>0.3512917018922153</v>
       </c>
       <c r="K25">
-        <v>0.3737664339000943</v>
+        <v>0.3399042012516205</v>
       </c>
       <c r="L25">
-        <v>0.07081691533283241</v>
+        <v>0.1571220734125944</v>
       </c>
       <c r="M25">
-        <v>0.8982410382999149</v>
+        <v>0.1018698771811533</v>
       </c>
       <c r="N25">
-        <v>0.1848374160750268</v>
+        <v>0.06779189398108443</v>
       </c>
       <c r="O25">
-        <v>0.2252941546312641</v>
+        <v>0.9000016227353456</v>
       </c>
       <c r="P25">
-        <v>0.9243867072461782</v>
+        <v>0.1991524376834946</v>
       </c>
       <c r="Q25">
-        <v>1.519325953080312</v>
+        <v>0.2228770564928233</v>
+      </c>
+      <c r="R25">
+        <v>0.9024175281579261</v>
+      </c>
+      <c r="S25">
+        <v>1.421479504477276</v>
       </c>
     </row>
   </sheetData>
